--- a/Support/ThemeTasks.xlsx
+++ b/Support/ThemeTasks.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="262">
   <si>
     <t>Priority</t>
   </si>
@@ -793,6 +793,30 @@
   </si>
   <si>
     <t>Review inpsyde plugin, gawa composer.json files</t>
+  </si>
+  <si>
+    <t>Review all PHP files and replace hard coded text strings</t>
+  </si>
+  <si>
+    <t>Review all PHP files and update all __, _e, _n and their derived function (ex 'esc_html_e).  Use printf when variables are involved.  Use _x and _ex as needed</t>
+  </si>
+  <si>
+    <t>wp i18n make-pot . languages/my-plugin.pot</t>
+  </si>
+  <si>
+    <t>Integrate wp i18n make-pot into build script</t>
+  </si>
+  <si>
+    <t>Create translated .mo files</t>
+  </si>
+  <si>
+    <t>Create english po file, if needed</t>
+  </si>
+  <si>
+    <t>msgfmt -o filename.mo filename.po</t>
+  </si>
+  <si>
+    <t>Add to build script</t>
   </si>
 </sst>
 </file>
@@ -802,7 +826,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -825,6 +849,12 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -846,7 +876,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -871,6 +901,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1152,11 +1185,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R187"/>
+  <dimension ref="A1:R193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1216,16 +1249,19 @@
         <v>200</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>218</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>257</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>256</v>
       </c>
       <c r="L2" s="1">
-        <v>43660</v>
+        <v>43990</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1233,16 +1269,16 @@
         <v>200</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>218</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>259</v>
       </c>
       <c r="L3" s="1">
-        <v>43712</v>
+        <v>43990</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1250,13 +1286,13 @@
         <v>200</v>
       </c>
       <c r="B4">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>218</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="L4" s="1">
         <v>43712</v>
@@ -1267,16 +1303,22 @@
         <v>200</v>
       </c>
       <c r="B5">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>218</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>258</v>
+      </c>
+      <c r="H5" t="s">
+        <v>260</v>
       </c>
       <c r="L5" s="1">
-        <v>43712</v>
+        <v>43990</v>
+      </c>
+      <c r="M5" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1284,16 +1326,16 @@
         <v>200</v>
       </c>
       <c r="B6">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
         <v>218</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>254</v>
       </c>
       <c r="L6" s="1">
-        <v>43712</v>
+        <v>43990</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1301,16 +1343,16 @@
         <v>200</v>
       </c>
       <c r="B7">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>218</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>255</v>
       </c>
       <c r="L7" s="1">
-        <v>43712</v>
+        <v>43990</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1318,19 +1360,16 @@
         <v>200</v>
       </c>
       <c r="B8">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
         <v>218</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L8" s="1">
         <v>43712</v>
-      </c>
-      <c r="M8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1338,16 +1377,16 @@
         <v>200</v>
       </c>
       <c r="B9">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
         <v>218</v>
       </c>
       <c r="G9" t="s">
-        <v>209</v>
+        <v>34</v>
       </c>
       <c r="L9" s="1">
-        <v>43976</v>
+        <v>43712</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1355,19 +1394,16 @@
         <v>200</v>
       </c>
       <c r="B10">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
         <v>218</v>
       </c>
-      <c r="E10" t="s">
-        <v>227</v>
-      </c>
       <c r="G10" t="s">
-        <v>217</v>
+        <v>40</v>
       </c>
       <c r="L10" s="1">
-        <v>43976</v>
+        <v>43712</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1375,16 +1411,13 @@
         <v>200</v>
       </c>
       <c r="B11">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
         <v>218</v>
       </c>
-      <c r="E11" t="s">
-        <v>227</v>
-      </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L11" s="1">
         <v>43712</v>
@@ -1395,22 +1428,19 @@
         <v>200</v>
       </c>
       <c r="B12">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
         <v>218</v>
       </c>
-      <c r="E12" t="s">
-        <v>227</v>
-      </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="L12" s="1">
-        <v>43661</v>
+        <v>43712</v>
       </c>
       <c r="M12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1418,19 +1448,16 @@
         <v>200</v>
       </c>
       <c r="B13">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
         <v>218</v>
       </c>
-      <c r="E13" t="s">
-        <v>227</v>
-      </c>
       <c r="G13" t="s">
-        <v>60</v>
+        <v>209</v>
       </c>
       <c r="L13" s="1">
-        <v>43661</v>
+        <v>43976</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1438,7 +1465,7 @@
         <v>200</v>
       </c>
       <c r="B14">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D14" t="s">
         <v>218</v>
@@ -1447,10 +1474,10 @@
         <v>227</v>
       </c>
       <c r="G14" t="s">
-        <v>61</v>
+        <v>217</v>
       </c>
       <c r="L14" s="1">
-        <v>43661</v>
+        <v>43976</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1458,7 +1485,7 @@
         <v>200</v>
       </c>
       <c r="B15">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D15" t="s">
         <v>218</v>
@@ -1467,10 +1494,10 @@
         <v>227</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L15" s="1">
-        <v>43661</v>
+        <v>43712</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1478,7 +1505,7 @@
         <v>200</v>
       </c>
       <c r="B16">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D16" t="s">
         <v>218</v>
@@ -1487,10 +1514,13 @@
         <v>227</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="L16" s="1">
         <v>43661</v>
+      </c>
+      <c r="M16" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1498,7 +1528,7 @@
         <v>200</v>
       </c>
       <c r="B17">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D17" t="s">
         <v>218</v>
@@ -1507,7 +1537,7 @@
         <v>227</v>
       </c>
       <c r="G17" t="s">
-        <v>229</v>
+        <v>60</v>
       </c>
       <c r="L17" s="1">
         <v>43661</v>
@@ -1518,19 +1548,19 @@
         <v>200</v>
       </c>
       <c r="B18">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D18" t="s">
         <v>218</v>
       </c>
       <c r="E18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="L18" s="1">
-        <v>43660</v>
+        <v>43661</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1538,19 +1568,19 @@
         <v>200</v>
       </c>
       <c r="B19">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D19" t="s">
         <v>218</v>
       </c>
       <c r="E19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="L19" s="1">
-        <v>43660</v>
+        <v>43661</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1558,19 +1588,19 @@
         <v>200</v>
       </c>
       <c r="B20">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D20" t="s">
         <v>218</v>
       </c>
       <c r="E20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="L20" s="1">
-        <v>43712</v>
+        <v>43661</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1578,13 +1608,16 @@
         <v>200</v>
       </c>
       <c r="B21">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="D21" t="s">
         <v>218</v>
       </c>
+      <c r="E21" t="s">
+        <v>227</v>
+      </c>
       <c r="G21" t="s">
-        <v>71</v>
+        <v>229</v>
       </c>
       <c r="L21" s="1">
         <v>43661</v>
@@ -1595,16 +1628,19 @@
         <v>200</v>
       </c>
       <c r="B22">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D22" t="s">
         <v>218</v>
       </c>
+      <c r="E22" t="s">
+        <v>228</v>
+      </c>
       <c r="G22" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="L22" s="1">
-        <v>43661</v>
+        <v>43660</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1612,16 +1648,19 @@
         <v>200</v>
       </c>
       <c r="B23">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D23" t="s">
         <v>218</v>
       </c>
+      <c r="E23" t="s">
+        <v>228</v>
+      </c>
       <c r="G23" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="L23" s="1">
-        <v>43661</v>
+        <v>43660</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1629,16 +1668,19 @@
         <v>200</v>
       </c>
       <c r="B24">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D24" t="s">
         <v>218</v>
       </c>
+      <c r="E24" t="s">
+        <v>228</v>
+      </c>
       <c r="G24" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="L24" s="1">
-        <v>43661</v>
+        <v>43712</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1646,183 +1688,159 @@
         <v>200</v>
       </c>
       <c r="B25">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="D25" t="s">
         <v>218</v>
       </c>
-      <c r="E25" t="s">
-        <v>228</v>
-      </c>
       <c r="G25" t="s">
-        <v>229</v>
+        <v>71</v>
       </c>
       <c r="L25" s="1">
         <v>43661</v>
       </c>
-      <c r="O25" s="7"/>
-    </row>
-    <row r="26" spans="1:15" ht="15.75">
-      <c r="A26" s="6" t="s">
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" t="s">
         <v>200</v>
       </c>
-      <c r="B26" s="7">
-        <v>150</v>
-      </c>
-      <c r="C26" s="7"/>
+      <c r="B26">
+        <v>136</v>
+      </c>
       <c r="D26" t="s">
         <v>218</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="G26" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H26" s="4"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="2">
-        <v>42636</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
+      <c r="G26" t="s">
+        <v>72</v>
+      </c>
+      <c r="L26" s="1">
+        <v>43661</v>
+      </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>200</v>
       </c>
       <c r="B27">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D27" t="s">
         <v>218</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="L27" s="1">
-        <v>43712</v>
+        <v>43661</v>
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="14" t="s">
+      <c r="A28" t="s">
         <v>200</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
+      <c r="B28">
+        <v>142</v>
+      </c>
       <c r="D28" t="s">
         <v>218</v>
       </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="15">
-        <v>43986</v>
-      </c>
-      <c r="M28" s="13"/>
-      <c r="O28" s="7"/>
+      <c r="G28" t="s">
+        <v>74</v>
+      </c>
+      <c r="L28" s="1">
+        <v>43661</v>
+      </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="11" t="s">
+      <c r="A29" t="s">
         <v>200</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
+      <c r="B29">
+        <v>147</v>
+      </c>
       <c r="D29" t="s">
         <v>218</v>
       </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="15">
-        <v>43986</v>
-      </c>
-      <c r="M29" s="11"/>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="11" t="s">
+      <c r="E29" t="s">
+        <v>228</v>
+      </c>
+      <c r="G29" t="s">
+        <v>229</v>
+      </c>
+      <c r="L29" s="1">
+        <v>43661</v>
+      </c>
+      <c r="O29" s="7"/>
+    </row>
+    <row r="30" spans="1:15" ht="15.75">
+      <c r="A30" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
+      <c r="B30" s="7">
+        <v>150</v>
+      </c>
+      <c r="C30" s="7"/>
       <c r="D30" t="s">
         <v>218</v>
       </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="15">
-        <v>43986</v>
-      </c>
-      <c r="M30" s="11"/>
+      <c r="E30" s="4"/>
+      <c r="G30" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="2">
+        <v>42636</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="11" t="s">
+      <c r="A31" t="s">
         <v>200</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
+      <c r="B31">
+        <v>151</v>
+      </c>
       <c r="D31" t="s">
         <v>218</v>
       </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="15">
-        <v>43986</v>
-      </c>
-      <c r="M31" s="11"/>
+      <c r="G31" t="s">
+        <v>35</v>
+      </c>
+      <c r="L31" s="1">
+        <v>43712</v>
+      </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
       <c r="D32" t="s">
         <v>218</v>
       </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
       <c r="L32" s="15">
         <v>43986</v>
       </c>
-      <c r="M32" s="11"/>
-    </row>
-    <row r="33" spans="1:15">
+      <c r="M32" s="13"/>
+      <c r="O32" s="7"/>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="11" t="s">
         <v>200</v>
       </c>
@@ -1834,7 +1852,7 @@
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -1845,7 +1863,7 @@
       </c>
       <c r="M33" s="11"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:13">
       <c r="A34" s="11" t="s">
         <v>200</v>
       </c>
@@ -1857,11 +1875,9 @@
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>246</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="H34" s="11"/>
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
@@ -1870,312 +1886,305 @@
       </c>
       <c r="M34" s="11"/>
     </row>
-    <row r="35" spans="1:15">
-      <c r="A35" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35">
-        <v>23</v>
-      </c>
+    <row r="35" spans="1:13">
+      <c r="A35" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
       <c r="D35" t="s">
-        <v>220</v>
-      </c>
-      <c r="G35" t="s">
-        <v>20</v>
-      </c>
-      <c r="L35" s="1">
-        <v>43660</v>
-      </c>
-      <c r="M35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="A36" t="s">
-        <v>95</v>
-      </c>
-      <c r="B36">
-        <v>33</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="15">
+        <v>43986</v>
+      </c>
+      <c r="M35" s="11"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
       <c r="D36" t="s">
-        <v>220</v>
-      </c>
-      <c r="G36" t="s">
-        <v>13</v>
-      </c>
-      <c r="L36" s="1">
-        <v>43712</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" t="s">
-        <v>95</v>
-      </c>
-      <c r="B37">
-        <v>34</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="15">
+        <v>43986</v>
+      </c>
+      <c r="M36" s="11"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
       <c r="D37" t="s">
-        <v>220</v>
-      </c>
-      <c r="G37" t="s">
-        <v>14</v>
-      </c>
-      <c r="L37" s="1">
-        <v>43712</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+        <v>218</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="15">
+        <v>43986</v>
+      </c>
+      <c r="M37" s="11"/>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
         <v>95</v>
       </c>
       <c r="B38">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D38" t="s">
         <v>220</v>
       </c>
       <c r="G38" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L38" s="1">
-        <v>43712</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+        <v>43660</v>
+      </c>
+      <c r="M38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
         <v>95</v>
       </c>
       <c r="B39">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D39" t="s">
         <v>220</v>
       </c>
       <c r="G39" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L39" s="1">
         <v>43712</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
         <v>95</v>
       </c>
       <c r="B40">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D40" t="s">
         <v>220</v>
       </c>
       <c r="G40" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L40" s="1">
         <v>43712</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
         <v>95</v>
       </c>
       <c r="B41">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D41" t="s">
         <v>220</v>
       </c>
       <c r="G41" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L41" s="1">
         <v>43712</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>95</v>
       </c>
       <c r="B42">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D42" t="s">
         <v>220</v>
       </c>
       <c r="G42" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="L42" s="1">
         <v>43712</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
         <v>95</v>
       </c>
       <c r="B43">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D43" t="s">
         <v>220</v>
       </c>
       <c r="G43" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L43" s="1">
         <v>43712</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
         <v>95</v>
       </c>
       <c r="B44">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D44" t="s">
         <v>220</v>
       </c>
       <c r="G44" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="L44" s="1">
         <v>43712</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
         <v>95</v>
       </c>
       <c r="B45">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D45" t="s">
         <v>220</v>
       </c>
       <c r="G45" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="L45" s="1">
-        <v>43665</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="15.75">
+        <v>43712</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
         <v>95</v>
       </c>
       <c r="B46">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D46" t="s">
         <v>220</v>
       </c>
       <c r="G46" t="s">
-        <v>68</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="L46" s="2">
-        <v>42636</v>
-      </c>
-      <c r="M46" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="15.75">
-      <c r="A47" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="L46" s="1">
+        <v>43712</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47">
+        <v>44</v>
+      </c>
       <c r="D47" t="s">
         <v>220</v>
       </c>
-      <c r="E47" s="4"/>
-      <c r="G47" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="J47" s="7"/>
-      <c r="L47" s="2">
-        <v>42636</v>
-      </c>
-      <c r="M47" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-    </row>
-    <row r="48" spans="1:15" ht="15.75">
-      <c r="A48" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
+      <c r="G47" t="s">
+        <v>39</v>
+      </c>
+      <c r="L47" s="1">
+        <v>43712</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48">
+        <v>46</v>
+      </c>
       <c r="D48" t="s">
         <v>220</v>
       </c>
-      <c r="E48" s="4"/>
-      <c r="G48" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="J48" s="7"/>
-      <c r="L48" s="2">
-        <v>42636</v>
-      </c>
-      <c r="M48" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
-    </row>
-    <row r="49" spans="1:18">
-      <c r="A49" s="3" t="s">
+      <c r="G48" t="s">
+        <v>67</v>
+      </c>
+      <c r="L48" s="1">
+        <v>43665</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="15.75">
+      <c r="A49" t="s">
         <v>95</v>
       </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
+      <c r="B49">
+        <v>48</v>
+      </c>
       <c r="D49" t="s">
         <v>220</v>
       </c>
-      <c r="E49" s="3"/>
-      <c r="G49" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="8">
-        <v>42754</v>
+      <c r="G49" t="s">
+        <v>68</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="L49" s="2">
+        <v>42636</v>
       </c>
       <c r="M49" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="N49" s="7"/>
-      <c r="O49" s="7"/>
     </row>
     <row r="50" spans="1:18" ht="15.75">
       <c r="A50" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" t="s">
         <v>220</v>
       </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
+      <c r="E50" s="4"/>
       <c r="G50" s="4" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="J50" s="7"/>
       <c r="L50" s="2">
@@ -2187,262 +2196,283 @@
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
     </row>
-    <row r="51" spans="1:18">
-      <c r="A51" t="s">
-        <v>95</v>
-      </c>
+    <row r="51" spans="1:18" ht="15.75">
+      <c r="A51" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
       <c r="D51" t="s">
         <v>220</v>
       </c>
-      <c r="G51" t="s">
-        <v>141</v>
-      </c>
-      <c r="L51" s="1">
-        <v>43712</v>
+      <c r="E51" s="4"/>
+      <c r="G51" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J51" s="7"/>
+      <c r="L51" s="2">
+        <v>42636</v>
       </c>
       <c r="M51" s="7" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" ht="15.75">
-      <c r="A52" s="5" t="s">
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="A52" s="3" t="s">
         <v>95</v>
       </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
       <c r="D52" t="s">
         <v>220</v>
       </c>
-      <c r="G52" t="s">
-        <v>152</v>
-      </c>
-      <c r="L52" s="1">
-        <v>43712</v>
+      <c r="E52" s="3"/>
+      <c r="G52" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="8">
+        <v>42754</v>
       </c>
       <c r="M52" s="7" t="s">
         <v>198</v>
       </c>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
     </row>
     <row r="53" spans="1:18" ht="15.75">
       <c r="A53" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="7" t="s">
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" t="s">
+        <v>220</v>
+      </c>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J53" s="7"/>
+      <c r="L53" s="2">
+        <v>42636</v>
+      </c>
+      <c r="M53" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" t="s">
+        <v>220</v>
+      </c>
+      <c r="G54" t="s">
+        <v>141</v>
+      </c>
+      <c r="L54" s="1">
+        <v>43712</v>
+      </c>
+      <c r="M54" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="15.75">
+      <c r="A55" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D55" t="s">
+        <v>220</v>
+      </c>
+      <c r="G55" t="s">
+        <v>152</v>
+      </c>
+      <c r="L55" s="1">
+        <v>43712</v>
+      </c>
+      <c r="M55" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="15.75">
+      <c r="A56" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E56" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F53" s="7"/>
-      <c r="G53" s="3" t="s">
+      <c r="F56" s="7"/>
+      <c r="G56" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H53" s="7"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="8">
+      <c r="H56" s="7"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="8">
         <v>42754</v>
       </c>
-      <c r="M53" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="O53" s="4"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="4"/>
-      <c r="R53" s="4"/>
-    </row>
-    <row r="54" spans="1:18">
-      <c r="A54" s="7" t="s">
+      <c r="M56" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="O56" s="4"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="A57" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7" t="s">
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7" t="s">
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="8">
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="8">
         <v>42556</v>
       </c>
-      <c r="M54" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" ht="15.75">
-      <c r="A55" s="6" t="s">
+      <c r="M57" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="15.75">
+      <c r="A58" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="7" t="s">
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="3" t="s">
+      <c r="E58" s="3"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="8">
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="8">
         <v>42754</v>
       </c>
-      <c r="M55" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18">
-      <c r="A56" t="s">
-        <v>120</v>
-      </c>
-      <c r="B56">
-        <v>4</v>
-      </c>
-      <c r="D56" t="s">
-        <v>219</v>
-      </c>
-      <c r="G56" t="s">
-        <v>204</v>
-      </c>
-      <c r="H56" t="s">
-        <v>205</v>
-      </c>
-      <c r="L56" s="1">
-        <v>43660</v>
-      </c>
-      <c r="M56" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" ht="15.75">
-      <c r="A57" t="s">
-        <v>120</v>
-      </c>
-      <c r="B57">
-        <v>7</v>
-      </c>
-      <c r="D57" t="s">
-        <v>219</v>
-      </c>
-      <c r="F57" s="4"/>
-      <c r="G57" t="s">
-        <v>66</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="L57" s="1">
-        <v>43719</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" ht="15.75">
-      <c r="A58" t="s">
-        <v>120</v>
-      </c>
-      <c r="B58">
-        <v>8</v>
-      </c>
-      <c r="D58" t="s">
-        <v>219</v>
-      </c>
-      <c r="F58" s="4"/>
-      <c r="G58" t="s">
-        <v>66</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="L58" s="1">
-        <v>43719</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" ht="15.75">
+      <c r="M58" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59" t="s">
         <v>120</v>
       </c>
       <c r="B59">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D59" t="s">
         <v>219</v>
       </c>
-      <c r="F59" s="4"/>
       <c r="G59" t="s">
-        <v>66</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>213</v>
+        <v>204</v>
+      </c>
+      <c r="H59" t="s">
+        <v>205</v>
       </c>
       <c r="L59" s="1">
-        <v>43719</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18">
+        <v>43660</v>
+      </c>
+      <c r="M59" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="15.75">
       <c r="A60" t="s">
         <v>120</v>
       </c>
       <c r="B60">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D60" t="s">
         <v>219</v>
       </c>
+      <c r="F60" s="4"/>
       <c r="G60" t="s">
-        <v>44</v>
+        <v>66</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>214</v>
       </c>
       <c r="L60" s="1">
-        <v>43660</v>
-      </c>
-      <c r="M60" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18">
+        <v>43719</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="15.75">
       <c r="A61" t="s">
         <v>120</v>
       </c>
       <c r="B61">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D61" t="s">
         <v>219</v>
       </c>
+      <c r="F61" s="4"/>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>66</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="L61" s="1">
-        <v>43660</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18">
+        <v>43719</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="15.75">
       <c r="A62" t="s">
         <v>120</v>
       </c>
       <c r="B62">
-        <v>148</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
         <v>219</v>
       </c>
+      <c r="F62" s="4"/>
       <c r="G62" t="s">
-        <v>44</v>
+        <v>66</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="L62" s="1">
-        <v>43661</v>
-      </c>
-      <c r="M62" t="s">
-        <v>81</v>
+        <v>43719</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -2450,135 +2480,123 @@
         <v>120</v>
       </c>
       <c r="B63">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
         <v>219</v>
       </c>
       <c r="G63" t="s">
+        <v>44</v>
+      </c>
+      <c r="L63" s="1">
+        <v>43660</v>
+      </c>
+      <c r="M63" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
+      <c r="A64" t="s">
+        <v>120</v>
+      </c>
+      <c r="B64">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s">
+        <v>219</v>
+      </c>
+      <c r="G64" t="s">
         <v>45</v>
       </c>
-      <c r="L63" s="1">
+      <c r="L64" s="1">
+        <v>43660</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65">
+        <v>148</v>
+      </c>
+      <c r="D65" t="s">
+        <v>219</v>
+      </c>
+      <c r="G65" t="s">
+        <v>44</v>
+      </c>
+      <c r="L65" s="1">
         <v>43661</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" ht="15.75">
-      <c r="A64" s="6" t="s">
+      <c r="M65" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" t="s">
         <v>120</v>
       </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="3" t="s">
+      <c r="B66">
+        <v>149</v>
+      </c>
+      <c r="D66" t="s">
         <v>219</v>
       </c>
-      <c r="E64" s="3"/>
-      <c r="G64" s="3" t="s">
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="L66" s="1">
+        <v>43661</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="15.75">
+      <c r="A67" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E67" s="3"/>
+      <c r="G67" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="8">
+      <c r="H67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="8">
         <v>42754</v>
       </c>
-      <c r="M64" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="N64" s="7"/>
-      <c r="O64" s="7"/>
-    </row>
-    <row r="65" spans="1:15">
-      <c r="A65" s="14" t="s">
+      <c r="M67" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="E65" s="14"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="H65" s="13"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="13"/>
-      <c r="L65" s="15">
-        <v>43986</v>
-      </c>
-      <c r="M65" s="11"/>
-      <c r="O65" s="7"/>
-    </row>
-    <row r="66" spans="1:15">
-      <c r="A66" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="11"/>
-      <c r="K66" s="11"/>
-      <c r="L66" s="15">
-        <v>43986</v>
-      </c>
-      <c r="M66" s="11"/>
-    </row>
-    <row r="67" spans="1:15">
-      <c r="A67" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="11"/>
-      <c r="K67" s="11"/>
-      <c r="L67" s="15">
-        <v>43986</v>
-      </c>
-      <c r="M67" s="11"/>
-    </row>
-    <row r="68" spans="1:15">
-      <c r="A68" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
       <c r="D68" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="10"/>
       <c r="G68" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="11"/>
-      <c r="K68" s="11"/>
+        <v>231</v>
+      </c>
+      <c r="H68" s="13"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="13"/>
       <c r="L68" s="15">
         <v>43986</v>
       </c>
       <c r="M68" s="11"/>
+      <c r="O68" s="7"/>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="11" t="s">
@@ -2592,7 +2610,7 @@
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
       <c r="G69" s="11" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
@@ -2615,7 +2633,7 @@
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
       <c r="G70" s="11" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H70" s="11"/>
       <c r="I70" s="11"/>
@@ -2638,7 +2656,7 @@
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
       <c r="G71" s="11" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H71" s="11"/>
       <c r="I71" s="11"/>
@@ -2649,217 +2667,210 @@
       </c>
       <c r="M71" s="11"/>
     </row>
-    <row r="72" spans="1:15" ht="15.75">
-      <c r="A72" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B72" s="3">
-        <v>3</v>
-      </c>
-      <c r="C72" s="3"/>
-      <c r="D72" t="s">
-        <v>206</v>
-      </c>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H72" s="4"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="2">
-        <v>42535</v>
-      </c>
-      <c r="M72" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="N72" s="3"/>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="1:15" ht="15.75">
-      <c r="A73" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B73" s="4">
-        <v>14</v>
-      </c>
-      <c r="C73" s="4"/>
-      <c r="D73" t="s">
-        <v>206</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="9">
-        <v>42071</v>
-      </c>
-      <c r="M73" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="O73" s="7"/>
-    </row>
-    <row r="74" spans="1:15" ht="15.75">
-      <c r="A74" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B74" s="5">
-        <v>15.4</v>
-      </c>
-      <c r="C74" s="5"/>
-      <c r="D74" t="s">
-        <v>206</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="F74" s="4"/>
-      <c r="G74" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="H74" s="5"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="9">
-        <v>41513</v>
-      </c>
-      <c r="M74" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="O74" s="7"/>
+    <row r="72" spans="1:15">
+      <c r="A72" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="15">
+        <v>43986</v>
+      </c>
+      <c r="M72" s="11"/>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="15">
+        <v>43986</v>
+      </c>
+      <c r="M73" s="11"/>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="15">
+        <v>43986</v>
+      </c>
+      <c r="M74" s="11"/>
     </row>
     <row r="75" spans="1:15" ht="15.75">
       <c r="A75" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B75" s="7">
+      <c r="B75" s="3">
+        <v>3</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" t="s">
+        <v>206</v>
+      </c>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H75" s="4"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="2">
+        <v>42535</v>
+      </c>
+      <c r="M75" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="1:15" ht="15.75">
+      <c r="A76" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B76" s="4">
+        <v>14</v>
+      </c>
+      <c r="C76" s="4"/>
+      <c r="D76" t="s">
+        <v>206</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="9">
+        <v>42071</v>
+      </c>
+      <c r="M76" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="O76" s="7"/>
+    </row>
+    <row r="77" spans="1:15" ht="15.75">
+      <c r="A77" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B77" s="5">
+        <v>15.4</v>
+      </c>
+      <c r="C77" s="5"/>
+      <c r="D77" t="s">
+        <v>206</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F77" s="4"/>
+      <c r="G77" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="H77" s="5"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="9">
+        <v>41513</v>
+      </c>
+      <c r="M77" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="O77" s="7"/>
+    </row>
+    <row r="78" spans="1:15" ht="15.75">
+      <c r="A78" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B78" s="7">
         <v>32</v>
       </c>
-      <c r="C75" s="7"/>
-      <c r="D75" t="s">
-        <v>206</v>
-      </c>
-      <c r="E75" s="3"/>
-      <c r="G75" s="3" t="s">
+      <c r="C78" s="7"/>
+      <c r="D78" t="s">
+        <v>206</v>
+      </c>
+      <c r="E78" s="3"/>
+      <c r="G78" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="H75" s="3" t="s">
+      <c r="H78" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="J75" s="7"/>
-      <c r="L75" s="2">
+      <c r="J78" s="7"/>
+      <c r="L78" s="2">
         <v>42636</v>
       </c>
-      <c r="M75" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="N75" s="7"/>
-      <c r="O75" s="7"/>
-    </row>
-    <row r="76" spans="1:15" ht="15.75">
-      <c r="A76" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B76" s="7">
-        <v>33</v>
-      </c>
-      <c r="C76" s="7"/>
-      <c r="D76" t="s">
-        <v>206</v>
-      </c>
-      <c r="E76" s="4"/>
-      <c r="G76" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="J76" s="7"/>
-      <c r="L76" s="2">
-        <v>42636</v>
-      </c>
-      <c r="M76" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="N76" s="7"/>
-      <c r="O76" s="7"/>
-    </row>
-    <row r="77" spans="1:15">
-      <c r="A77" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B77" s="3">
-        <v>49</v>
-      </c>
-      <c r="C77" s="3"/>
-      <c r="D77" t="s">
-        <v>206</v>
-      </c>
-      <c r="E77" s="3"/>
-      <c r="G77" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H77" s="3"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="8">
-        <v>42754</v>
-      </c>
-      <c r="M77" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="N77" s="7"/>
-      <c r="O77" s="7"/>
-    </row>
-    <row r="78" spans="1:15">
-      <c r="A78" t="s">
-        <v>201</v>
-      </c>
-      <c r="B78">
-        <v>50</v>
-      </c>
-      <c r="D78" t="s">
-        <v>206</v>
-      </c>
-      <c r="G78" t="s">
-        <v>138</v>
-      </c>
-      <c r="H78" t="s">
-        <v>139</v>
-      </c>
-      <c r="L78" s="1">
-        <v>43712</v>
-      </c>
       <c r="M78" s="7" t="s">
         <v>198</v>
       </c>
+      <c r="N78" s="7"/>
+      <c r="O78" s="7"/>
     </row>
     <row r="79" spans="1:15" ht="15.75">
       <c r="A79" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B79" s="7"/>
+      <c r="B79" s="7">
+        <v>33</v>
+      </c>
       <c r="C79" s="7"/>
       <c r="D79" t="s">
         <v>206</v>
       </c>
-      <c r="E79" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F79" s="7"/>
-      <c r="G79" s="3" t="s">
-        <v>90</v>
+      <c r="E79" s="4"/>
+      <c r="G79" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="J79" s="7"/>
       <c r="L79" s="2">
@@ -2871,25 +2882,26 @@
       <c r="N79" s="7"/>
       <c r="O79" s="7"/>
     </row>
-    <row r="80" spans="1:15" ht="15.75">
-      <c r="A80" s="6" t="s">
+    <row r="80" spans="1:15">
+      <c r="A80" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
+      <c r="B80" s="3">
+        <v>49</v>
+      </c>
+      <c r="C80" s="3"/>
       <c r="D80" t="s">
         <v>206</v>
       </c>
-      <c r="E80" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F80" s="7"/>
+      <c r="E80" s="3"/>
       <c r="G80" s="3" t="s">
-        <v>89</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="H80" s="3"/>
       <c r="J80" s="7"/>
-      <c r="L80" s="2">
-        <v>42636</v>
+      <c r="K80" s="3"/>
+      <c r="L80" s="8">
+        <v>42754</v>
       </c>
       <c r="M80" s="7" t="s">
         <v>198</v>
@@ -2897,31 +2909,28 @@
       <c r="N80" s="7"/>
       <c r="O80" s="7"/>
     </row>
-    <row r="81" spans="1:15" ht="15.75">
-      <c r="A81" s="6" t="s">
+    <row r="81" spans="1:15">
+      <c r="A81" t="s">
         <v>201</v>
       </c>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
+      <c r="B81">
+        <v>50</v>
+      </c>
       <c r="D81" t="s">
         <v>206</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F81" s="7"/>
-      <c r="G81" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J81" s="7"/>
-      <c r="L81" s="2">
-        <v>42636</v>
+      <c r="G81" t="s">
+        <v>138</v>
+      </c>
+      <c r="H81" t="s">
+        <v>139</v>
+      </c>
+      <c r="L81" s="1">
+        <v>43712</v>
       </c>
       <c r="M81" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="N81" s="7"/>
-      <c r="O81" s="7"/>
     </row>
     <row r="82" spans="1:15" ht="15.75">
       <c r="A82" s="6" t="s">
@@ -2932,12 +2941,12 @@
       <c r="D82" t="s">
         <v>206</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="E82" s="3" t="s">
         <v>87</v>
       </c>
       <c r="F82" s="7"/>
-      <c r="G82" s="4" t="s">
-        <v>86</v>
+      <c r="G82" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="J82" s="7"/>
       <c r="L82" s="2">
@@ -2949,109 +2958,136 @@
       <c r="N82" s="7"/>
       <c r="O82" s="7"/>
     </row>
-    <row r="83" spans="1:15">
-      <c r="A83" s="3" t="s">
+    <row r="83" spans="1:15" ht="15.75">
+      <c r="A83" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
       <c r="D83" t="s">
         <v>206</v>
       </c>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
+      <c r="E83" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F83" s="7"/>
       <c r="G83" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J83" s="7"/>
+      <c r="L83" s="2">
+        <v>42636</v>
+      </c>
+      <c r="M83" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="N83" s="7"/>
+      <c r="O83" s="7"/>
+    </row>
+    <row r="84" spans="1:15" ht="15.75">
+      <c r="A84" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" t="s">
+        <v>206</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F84" s="7"/>
+      <c r="G84" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J84" s="7"/>
+      <c r="L84" s="2">
+        <v>42636</v>
+      </c>
+      <c r="M84" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="N84" s="7"/>
+      <c r="O84" s="7"/>
+    </row>
+    <row r="85" spans="1:15" ht="15.75">
+      <c r="A85" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" t="s">
+        <v>206</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F85" s="7"/>
+      <c r="G85" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J85" s="7"/>
+      <c r="L85" s="2">
+        <v>42636</v>
+      </c>
+      <c r="M85" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="N85" s="7"/>
+      <c r="O85" s="7"/>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" t="s">
+        <v>206</v>
+      </c>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="7"/>
-      <c r="K83" s="7"/>
-      <c r="L83" s="8">
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="8">
         <v>42754</v>
       </c>
-      <c r="M83" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="O83" s="7"/>
-    </row>
-    <row r="84" spans="1:15">
-      <c r="A84" t="s">
+      <c r="M86" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="O86" s="7"/>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="A87" t="s">
         <v>201</v>
       </c>
-      <c r="D84" t="s">
-        <v>206</v>
-      </c>
-      <c r="G84" t="s">
+      <c r="D87" t="s">
+        <v>206</v>
+      </c>
+      <c r="G87" t="s">
         <v>147</v>
       </c>
-      <c r="L84" s="1">
-        <v>43712</v>
-      </c>
-      <c r="M84" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" ht="15.75">
-      <c r="A85" s="5" t="s">
+      <c r="L87" s="1">
+        <v>43712</v>
+      </c>
+      <c r="M87" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="15.75">
+      <c r="A88" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="D85" t="s">
-        <v>206</v>
-      </c>
-      <c r="G85" t="s">
+      <c r="D88" t="s">
+        <v>206</v>
+      </c>
+      <c r="G88" t="s">
         <v>148</v>
-      </c>
-      <c r="L85" s="1">
-        <v>43712</v>
-      </c>
-      <c r="M85" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
-      <c r="A86" t="s">
-        <v>201</v>
-      </c>
-      <c r="D86" t="s">
-        <v>206</v>
-      </c>
-      <c r="G86" t="s">
-        <v>149</v>
-      </c>
-      <c r="L86" s="1">
-        <v>43712</v>
-      </c>
-      <c r="M86" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" ht="15.75">
-      <c r="A87" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="D87" t="s">
-        <v>206</v>
-      </c>
-      <c r="G87" t="s">
-        <v>150</v>
-      </c>
-      <c r="L87" s="1">
-        <v>43712</v>
-      </c>
-      <c r="M87" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15">
-      <c r="A88" t="s">
-        <v>201</v>
-      </c>
-      <c r="D88" t="s">
-        <v>206</v>
-      </c>
-      <c r="G88" t="s">
-        <v>151</v>
       </c>
       <c r="L88" s="1">
         <v>43712</v>
@@ -3068,7 +3104,7 @@
         <v>206</v>
       </c>
       <c r="G89" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L89" s="1">
         <v>43712</v>
@@ -3085,7 +3121,7 @@
         <v>206</v>
       </c>
       <c r="G90" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L90" s="1">
         <v>43712</v>
@@ -3102,7 +3138,7 @@
         <v>206</v>
       </c>
       <c r="G91" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L91" s="1">
         <v>43712</v>
@@ -3119,7 +3155,7 @@
         <v>206</v>
       </c>
       <c r="G92" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L92" s="1">
         <v>43712</v>
@@ -3128,15 +3164,15 @@
         <v>198</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
-      <c r="A93" t="s">
+    <row r="93" spans="1:15" ht="15.75">
+      <c r="A93" s="5" t="s">
         <v>201</v>
       </c>
       <c r="D93" t="s">
         <v>206</v>
       </c>
       <c r="G93" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L93" s="1">
         <v>43712</v>
@@ -3153,7 +3189,7 @@
         <v>206</v>
       </c>
       <c r="G94" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L94" s="1">
         <v>43712</v>
@@ -3170,7 +3206,7 @@
         <v>206</v>
       </c>
       <c r="G95" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L95" s="1">
         <v>43712</v>
@@ -3187,7 +3223,7 @@
         <v>206</v>
       </c>
       <c r="G96" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L96" s="1">
         <v>43712</v>
@@ -3204,7 +3240,7 @@
         <v>206</v>
       </c>
       <c r="G97" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L97" s="1">
         <v>43712</v>
@@ -3221,7 +3257,7 @@
         <v>206</v>
       </c>
       <c r="G98" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L98" s="1">
         <v>43712</v>
@@ -3238,7 +3274,7 @@
         <v>206</v>
       </c>
       <c r="G99" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L99" s="1">
         <v>43712</v>
@@ -3255,7 +3291,7 @@
         <v>206</v>
       </c>
       <c r="G100" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L100" s="1">
         <v>43712</v>
@@ -3272,7 +3308,7 @@
         <v>206</v>
       </c>
       <c r="G101" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L101" s="1">
         <v>43712</v>
@@ -3289,7 +3325,7 @@
         <v>206</v>
       </c>
       <c r="G102" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L102" s="1">
         <v>43712</v>
@@ -3306,7 +3342,7 @@
         <v>206</v>
       </c>
       <c r="G103" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L103" s="1">
         <v>43712</v>
@@ -3323,7 +3359,7 @@
         <v>206</v>
       </c>
       <c r="G104" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L104" s="1">
         <v>43712</v>
@@ -3340,7 +3376,7 @@
         <v>206</v>
       </c>
       <c r="G105" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L105" s="1">
         <v>43712</v>
@@ -3357,7 +3393,7 @@
         <v>206</v>
       </c>
       <c r="G106" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L106" s="1">
         <v>43712</v>
@@ -3374,7 +3410,7 @@
         <v>206</v>
       </c>
       <c r="G107" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L107" s="1">
         <v>43712</v>
@@ -3391,7 +3427,7 @@
         <v>206</v>
       </c>
       <c r="G108" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L108" s="1">
         <v>43712</v>
@@ -3408,7 +3444,7 @@
         <v>206</v>
       </c>
       <c r="G109" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L109" s="1">
         <v>43712</v>
@@ -3425,7 +3461,7 @@
         <v>206</v>
       </c>
       <c r="G110" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L110" s="1">
         <v>43712</v>
@@ -3442,7 +3478,7 @@
         <v>206</v>
       </c>
       <c r="G111" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L111" s="1">
         <v>43712</v>
@@ -3459,10 +3495,7 @@
         <v>206</v>
       </c>
       <c r="G112" t="s">
-        <v>176</v>
-      </c>
-      <c r="H112" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L112" s="1">
         <v>43712</v>
@@ -3479,10 +3512,10 @@
         <v>206</v>
       </c>
       <c r="G113" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H113" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L113" s="1">
         <v>43712</v>
@@ -3499,10 +3532,10 @@
         <v>206</v>
       </c>
       <c r="G114" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H114" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L114" s="1">
         <v>43712</v>
@@ -3519,10 +3552,10 @@
         <v>206</v>
       </c>
       <c r="G115" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H115" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L115" s="1">
         <v>43712</v>
@@ -3539,10 +3572,10 @@
         <v>206</v>
       </c>
       <c r="G116" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H116" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L116" s="1">
         <v>43712</v>
@@ -3559,10 +3592,10 @@
         <v>206</v>
       </c>
       <c r="G117" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H117" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L117" s="1">
         <v>43712</v>
@@ -3579,10 +3612,10 @@
         <v>206</v>
       </c>
       <c r="G118" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H118" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L118" s="1">
         <v>43712</v>
@@ -3599,7 +3632,10 @@
         <v>206</v>
       </c>
       <c r="G119" t="s">
-        <v>190</v>
+        <v>188</v>
+      </c>
+      <c r="H119" t="s">
+        <v>189</v>
       </c>
       <c r="L119" s="1">
         <v>43712</v>
@@ -3616,7 +3652,7 @@
         <v>206</v>
       </c>
       <c r="G120" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L120" s="1">
         <v>43712</v>
@@ -3633,7 +3669,7 @@
         <v>206</v>
       </c>
       <c r="G121" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L121" s="1">
         <v>43712</v>
@@ -3650,7 +3686,7 @@
         <v>206</v>
       </c>
       <c r="G122" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L122" s="1">
         <v>43712</v>
@@ -3667,7 +3703,7 @@
         <v>206</v>
       </c>
       <c r="G123" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L123" s="1">
         <v>43712</v>
@@ -3684,7 +3720,7 @@
         <v>206</v>
       </c>
       <c r="G124" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L124" s="1">
         <v>43712</v>
@@ -3701,7 +3737,7 @@
         <v>206</v>
       </c>
       <c r="G125" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L125" s="1">
         <v>43712</v>
@@ -3718,187 +3754,187 @@
         <v>206</v>
       </c>
       <c r="G126" t="s">
+        <v>196</v>
+      </c>
+      <c r="L126" s="1">
+        <v>43712</v>
+      </c>
+      <c r="M126" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="A127" t="s">
+        <v>201</v>
+      </c>
+      <c r="D127" t="s">
+        <v>206</v>
+      </c>
+      <c r="G127" t="s">
         <v>197</v>
       </c>
-      <c r="L126" s="1">
-        <v>43712</v>
-      </c>
-      <c r="M126" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" ht="15.75">
-      <c r="A127" s="6" t="s">
+      <c r="L127" s="1">
+        <v>43712</v>
+      </c>
+      <c r="M127" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" ht="15.75">
+      <c r="A128" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
-      <c r="D127" t="s">
-        <v>206</v>
-      </c>
-      <c r="E127" s="3"/>
-      <c r="G127" s="3" t="s">
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" t="s">
+        <v>206</v>
+      </c>
+      <c r="E128" s="3"/>
+      <c r="G128" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="H127" s="3" t="s">
+      <c r="H128" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="K127" s="7"/>
-      <c r="L127" s="8">
+      <c r="K128" s="7"/>
+      <c r="L128" s="8">
         <v>42754</v>
       </c>
-      <c r="M127" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="N127" s="7"/>
-      <c r="O127" s="7"/>
-    </row>
-    <row r="128" spans="1:15">
-      <c r="A128" s="11" t="s">
+      <c r="M128" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="N128" s="7"/>
+      <c r="O128" s="7"/>
+    </row>
+    <row r="129" spans="1:15">
+      <c r="A129" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="B128" s="11"/>
-      <c r="C128" s="11"/>
-      <c r="D128" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="E128" s="11"/>
-      <c r="F128" s="11"/>
-      <c r="G128" s="11" t="s">
+      <c r="B129" s="11"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="H128" s="11"/>
-      <c r="I128" s="11"/>
-      <c r="J128" s="11"/>
-      <c r="K128" s="11"/>
-      <c r="L128" s="15">
+      <c r="H129" s="11"/>
+      <c r="I129" s="11"/>
+      <c r="J129" s="11"/>
+      <c r="K129" s="11"/>
+      <c r="L129" s="15">
         <v>43986</v>
       </c>
-      <c r="M128" s="11"/>
-    </row>
-    <row r="129" spans="1:15" ht="15.75">
-      <c r="A129" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B129" s="5">
-        <v>15.4</v>
-      </c>
-      <c r="C129" s="5"/>
-      <c r="D129" t="s">
-        <v>222</v>
-      </c>
-      <c r="E129" s="5"/>
-      <c r="F129" s="4"/>
-      <c r="G129" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="H129" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="I129" s="4"/>
-      <c r="J129" s="4"/>
-      <c r="K129" s="4"/>
-      <c r="L129" s="9">
-        <v>41513</v>
-      </c>
-      <c r="M129" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="O129" s="7"/>
+      <c r="M129" s="11"/>
     </row>
     <row r="130" spans="1:15" ht="15.75">
       <c r="A130" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B130" s="4">
-        <v>20</v>
-      </c>
-      <c r="C130" s="4"/>
+      <c r="B130" s="5">
+        <v>15.4</v>
+      </c>
+      <c r="C130" s="5"/>
       <c r="D130" t="s">
         <v>222</v>
       </c>
       <c r="E130" s="5"/>
       <c r="F130" s="4"/>
-      <c r="G130" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="H130" s="4"/>
-      <c r="I130" s="4">
-        <v>5</v>
-      </c>
+      <c r="G130" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H130" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I130" s="4"/>
       <c r="J130" s="4"/>
       <c r="K130" s="4"/>
       <c r="L130" s="9">
-        <v>41452</v>
+        <v>41513</v>
       </c>
       <c r="M130" s="7" t="s">
         <v>198</v>
       </c>
+      <c r="O130" s="7"/>
     </row>
     <row r="131" spans="1:15" ht="15.75">
-      <c r="A131" s="4" t="s">
+      <c r="A131" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B131" s="3">
-        <v>21</v>
+      <c r="B131" s="4">
+        <v>20</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" t="s">
         <v>222</v>
       </c>
-      <c r="E131" s="5" t="s">
-        <v>94</v>
-      </c>
+      <c r="E131" s="5"/>
+      <c r="F131" s="4"/>
       <c r="G131" s="4" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="H131" s="4"/>
+      <c r="I131" s="4">
+        <v>5</v>
+      </c>
       <c r="J131" s="4"/>
       <c r="K131" s="4"/>
-      <c r="L131" s="2">
-        <v>42404</v>
+      <c r="L131" s="9">
+        <v>41452</v>
       </c>
       <c r="M131" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="N131" s="4"/>
-      <c r="O131" s="4"/>
     </row>
     <row r="132" spans="1:15" ht="15.75">
-      <c r="A132" s="5" t="s">
+      <c r="A132" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B132">
-        <v>30</v>
-      </c>
+      <c r="B132" s="3">
+        <v>21</v>
+      </c>
+      <c r="C132" s="4"/>
       <c r="D132" t="s">
         <v>222</v>
       </c>
-      <c r="G132" t="s">
-        <v>140</v>
-      </c>
-      <c r="L132" s="1">
-        <v>43712</v>
+      <c r="E132" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H132" s="4"/>
+      <c r="J132" s="4"/>
+      <c r="K132" s="4"/>
+      <c r="L132" s="2">
+        <v>42404</v>
       </c>
       <c r="M132" s="7" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="133" spans="1:15">
-      <c r="A133" t="s">
+      <c r="N132" s="4"/>
+      <c r="O132" s="4"/>
+    </row>
+    <row r="133" spans="1:15" ht="15.75">
+      <c r="A133" s="5" t="s">
         <v>224</v>
       </c>
       <c r="B133">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D133" t="s">
         <v>222</v>
       </c>
       <c r="G133" t="s">
-        <v>199</v>
+        <v>140</v>
       </c>
       <c r="L133" s="1">
-        <v>43719</v>
+        <v>43712</v>
+      </c>
+      <c r="M133" s="7" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="134" spans="1:15">
@@ -3906,138 +3942,128 @@
         <v>224</v>
       </c>
       <c r="B134">
-        <v>150</v>
+        <v>31</v>
       </c>
       <c r="D134" t="s">
         <v>222</v>
       </c>
       <c r="G134" t="s">
-        <v>22</v>
+        <v>199</v>
       </c>
       <c r="L134" s="1">
-        <v>43661</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" ht="15.75">
-      <c r="A135" s="6" t="s">
+        <v>43719</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
+      <c r="A135" t="s">
         <v>224</v>
       </c>
-      <c r="B135" s="7"/>
-      <c r="C135" s="7"/>
+      <c r="B135">
+        <v>150</v>
+      </c>
       <c r="D135" t="s">
         <v>222</v>
       </c>
-      <c r="E135" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="F135" s="4"/>
-      <c r="G135" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="H135" s="4"/>
-      <c r="J135" s="4"/>
-      <c r="K135" s="7"/>
-      <c r="L135" s="2">
-        <v>42636</v>
-      </c>
-      <c r="M135" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="O135" s="7"/>
+      <c r="G135" t="s">
+        <v>22</v>
+      </c>
+      <c r="L135" s="1">
+        <v>43661</v>
+      </c>
     </row>
     <row r="136" spans="1:15" ht="15.75">
-      <c r="A136" s="5" t="s">
+      <c r="A136" s="6" t="s">
         <v>224</v>
       </c>
+      <c r="B136" s="7"/>
+      <c r="C136" s="7"/>
       <c r="D136" t="s">
         <v>222</v>
       </c>
-      <c r="G136" t="s">
-        <v>146</v>
-      </c>
-      <c r="L136" s="1">
-        <v>43712</v>
+      <c r="E136" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="H136" s="4"/>
+      <c r="J136" s="4"/>
+      <c r="K136" s="7"/>
+      <c r="L136" s="2">
+        <v>42636</v>
       </c>
       <c r="M136" s="7" t="s">
         <v>198</v>
       </c>
+      <c r="O136" s="7"/>
     </row>
     <row r="137" spans="1:15" ht="15.75">
       <c r="A137" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B137" s="5"/>
-      <c r="C137" s="5"/>
       <c r="D137" t="s">
         <v>222</v>
       </c>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5"/>
-      <c r="G137" s="5" t="s">
+      <c r="G137" t="s">
+        <v>146</v>
+      </c>
+      <c r="L137" s="1">
+        <v>43712</v>
+      </c>
+      <c r="M137" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" ht="15.75">
+      <c r="A138" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
+      <c r="D138" t="s">
+        <v>222</v>
+      </c>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="H137" s="5"/>
-      <c r="I137" s="5">
+      <c r="H138" s="5"/>
+      <c r="I138" s="5">
         <v>30</v>
       </c>
-      <c r="J137" s="5"/>
-      <c r="K137" s="5"/>
-      <c r="L137" s="9">
+      <c r="J138" s="5"/>
+      <c r="K138" s="5"/>
+      <c r="L138" s="9">
         <v>41499</v>
       </c>
-      <c r="M137" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15">
-      <c r="A138" s="10" t="s">
+      <c r="M138" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
+      <c r="A139" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B138" s="10"/>
-      <c r="C138" s="10"/>
-      <c r="D138" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="E138" s="10"/>
-      <c r="F138" s="11"/>
-      <c r="G138" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="H138" s="10"/>
-      <c r="I138" s="11"/>
-      <c r="J138" s="10"/>
-      <c r="K138" s="10"/>
-      <c r="L138" s="12">
-        <v>43719</v>
-      </c>
-      <c r="M138" s="13"/>
-      <c r="N138" s="7"/>
-      <c r="O138" s="7"/>
-    </row>
-    <row r="139" spans="1:15">
-      <c r="A139" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="B139" s="13"/>
-      <c r="C139" s="13"/>
+      <c r="B139" s="10"/>
+      <c r="C139" s="10"/>
       <c r="D139" s="11" t="s">
         <v>222</v>
       </c>
       <c r="E139" s="10"/>
       <c r="F139" s="11"/>
       <c r="G139" s="10" t="s">
-        <v>112</v>
+        <v>207</v>
       </c>
       <c r="H139" s="10"/>
       <c r="I139" s="11"/>
-      <c r="J139" s="13"/>
+      <c r="J139" s="10"/>
       <c r="K139" s="10"/>
-      <c r="L139" s="15">
-        <v>42636</v>
-      </c>
-      <c r="M139" s="13" t="s">
-        <v>198</v>
-      </c>
+      <c r="L139" s="12">
+        <v>43719</v>
+      </c>
+      <c r="M139" s="13"/>
       <c r="N139" s="7"/>
       <c r="O139" s="7"/>
     </row>
@@ -4045,22 +4071,22 @@
       <c r="A140" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="B140" s="10"/>
-      <c r="C140" s="10"/>
+      <c r="B140" s="13"/>
+      <c r="C140" s="13"/>
       <c r="D140" s="11" t="s">
         <v>222</v>
       </c>
       <c r="E140" s="10"/>
       <c r="F140" s="11"/>
       <c r="G140" s="10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H140" s="10"/>
       <c r="I140" s="11"/>
       <c r="J140" s="13"/>
       <c r="K140" s="10"/>
-      <c r="L140" s="16">
-        <v>42754</v>
+      <c r="L140" s="15">
+        <v>42636</v>
       </c>
       <c r="M140" s="13" t="s">
         <v>198</v>
@@ -4072,22 +4098,22 @@
       <c r="A141" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="B141" s="13"/>
-      <c r="C141" s="13"/>
+      <c r="B141" s="10"/>
+      <c r="C141" s="10"/>
       <c r="D141" s="11" t="s">
         <v>222</v>
       </c>
       <c r="E141" s="10"/>
       <c r="F141" s="11"/>
       <c r="G141" s="10" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="H141" s="10"/>
       <c r="I141" s="11"/>
       <c r="J141" s="13"/>
       <c r="K141" s="10"/>
-      <c r="L141" s="15">
-        <v>42636</v>
+      <c r="L141" s="16">
+        <v>42754</v>
       </c>
       <c r="M141" s="13" t="s">
         <v>198</v>
@@ -4104,15 +4130,15 @@
       <c r="D142" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="E142" s="13"/>
-      <c r="F142" s="13"/>
+      <c r="E142" s="10"/>
+      <c r="F142" s="11"/>
       <c r="G142" s="10" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H142" s="10"/>
       <c r="I142" s="11"/>
-      <c r="J142" s="10"/>
-      <c r="K142" s="13"/>
+      <c r="J142" s="13"/>
+      <c r="K142" s="10"/>
       <c r="L142" s="15">
         <v>42636</v>
       </c>
@@ -4123,58 +4149,60 @@
       <c r="O142" s="7"/>
     </row>
     <row r="143" spans="1:15">
-      <c r="A143" s="10" t="s">
+      <c r="A143" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="B143" s="10"/>
-      <c r="C143" s="10"/>
+      <c r="B143" s="13"/>
+      <c r="C143" s="13"/>
       <c r="D143" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="E143" s="10"/>
+      <c r="E143" s="13"/>
       <c r="F143" s="13"/>
       <c r="G143" s="10" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="H143" s="10"/>
-      <c r="I143" s="10"/>
-      <c r="J143" s="13"/>
+      <c r="I143" s="11"/>
+      <c r="J143" s="10"/>
       <c r="K143" s="13"/>
-      <c r="L143" s="16">
-        <v>42754</v>
+      <c r="L143" s="15">
+        <v>42636</v>
       </c>
       <c r="M143" s="13" t="s">
         <v>198</v>
       </c>
+      <c r="N143" s="7"/>
       <c r="O143" s="7"/>
     </row>
     <row r="144" spans="1:15">
-      <c r="A144" s="14" t="s">
+      <c r="A144" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B144" s="11"/>
-      <c r="C144" s="11"/>
+      <c r="B144" s="10"/>
+      <c r="C144" s="10"/>
       <c r="D144" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="E144" s="11"/>
-      <c r="F144" s="11"/>
-      <c r="G144" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="H144" s="11"/>
-      <c r="I144" s="11"/>
-      <c r="J144" s="11"/>
-      <c r="K144" s="11"/>
-      <c r="L144" s="12">
-        <v>43712</v>
+      <c r="E144" s="10"/>
+      <c r="F144" s="13"/>
+      <c r="G144" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H144" s="10"/>
+      <c r="I144" s="10"/>
+      <c r="J144" s="13"/>
+      <c r="K144" s="13"/>
+      <c r="L144" s="16">
+        <v>42754</v>
       </c>
       <c r="M144" s="13" t="s">
         <v>198</v>
       </c>
+      <c r="O144" s="7"/>
     </row>
     <row r="145" spans="1:15">
-      <c r="A145" s="11" t="s">
+      <c r="A145" s="14" t="s">
         <v>224</v>
       </c>
       <c r="B145" s="11"/>
@@ -4185,7 +4213,7 @@
       <c r="E145" s="11"/>
       <c r="F145" s="11"/>
       <c r="G145" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H145" s="11"/>
       <c r="I145" s="11"/>
@@ -4207,20 +4235,21 @@
       <c r="D146" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="E146" s="14"/>
-      <c r="F146" s="10"/>
-      <c r="G146" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="H146" s="10"/>
-      <c r="I146" s="10"/>
-      <c r="J146" s="10"/>
-      <c r="K146" s="10"/>
-      <c r="L146" s="15">
-        <v>43986</v>
-      </c>
-      <c r="M146" s="13"/>
-      <c r="O146" s="7"/>
+      <c r="E146" s="11"/>
+      <c r="F146" s="11"/>
+      <c r="G146" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="H146" s="11"/>
+      <c r="I146" s="11"/>
+      <c r="J146" s="11"/>
+      <c r="K146" s="11"/>
+      <c r="L146" s="12">
+        <v>43712</v>
+      </c>
+      <c r="M146" s="13" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="147" spans="1:15">
       <c r="A147" s="11" t="s">
@@ -4231,19 +4260,19 @@
       <c r="D147" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="E147" s="11"/>
-      <c r="F147" s="11"/>
-      <c r="G147" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="H147" s="11"/>
-      <c r="I147" s="11"/>
-      <c r="J147" s="11"/>
-      <c r="K147" s="11"/>
+      <c r="E147" s="14"/>
+      <c r="F147" s="10"/>
+      <c r="G147" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="H147" s="10"/>
+      <c r="I147" s="10"/>
+      <c r="J147" s="10"/>
+      <c r="K147" s="10"/>
       <c r="L147" s="15">
         <v>43986</v>
       </c>
-      <c r="M147" s="11"/>
+      <c r="M147" s="13"/>
       <c r="O147" s="7"/>
     </row>
     <row r="148" spans="1:15">
@@ -4258,7 +4287,7 @@
       <c r="E148" s="11"/>
       <c r="F148" s="11"/>
       <c r="G148" s="11" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="H148" s="11"/>
       <c r="I148" s="11"/>
@@ -4268,6 +4297,7 @@
         <v>43986</v>
       </c>
       <c r="M148" s="11"/>
+      <c r="O148" s="7"/>
     </row>
     <row r="149" spans="1:15">
       <c r="A149" s="11" t="s">
@@ -4281,7 +4311,7 @@
       <c r="E149" s="11"/>
       <c r="F149" s="11"/>
       <c r="G149" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H149" s="11"/>
       <c r="I149" s="11"/>
@@ -4304,7 +4334,7 @@
       <c r="E150" s="11"/>
       <c r="F150" s="11"/>
       <c r="G150" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H150" s="11"/>
       <c r="I150" s="11"/>
@@ -4327,7 +4357,7 @@
       <c r="E151" s="11"/>
       <c r="F151" s="11"/>
       <c r="G151" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H151" s="11"/>
       <c r="I151" s="11"/>
@@ -4350,7 +4380,7 @@
       <c r="E152" s="11"/>
       <c r="F152" s="11"/>
       <c r="G152" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H152" s="11"/>
       <c r="I152" s="11"/>
@@ -4363,31 +4393,29 @@
     </row>
     <row r="153" spans="1:15">
       <c r="A153" s="11" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
       <c r="D153" s="11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E153" s="11"/>
       <c r="F153" s="11"/>
       <c r="G153" s="11" t="s">
-        <v>145</v>
+        <v>252</v>
       </c>
       <c r="H153" s="11"/>
       <c r="I153" s="11"/>
       <c r="J153" s="11"/>
       <c r="K153" s="11"/>
-      <c r="L153" s="12">
-        <v>43712</v>
-      </c>
-      <c r="M153" s="13" t="s">
-        <v>198</v>
-      </c>
+      <c r="L153" s="15">
+        <v>43986</v>
+      </c>
+      <c r="M153" s="11"/>
     </row>
     <row r="154" spans="1:15">
-      <c r="A154" s="14" t="s">
+      <c r="A154" s="11" t="s">
         <v>223</v>
       </c>
       <c r="B154" s="11"/>
@@ -4398,7 +4426,7 @@
       <c r="E154" s="11"/>
       <c r="F154" s="11"/>
       <c r="G154" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H154" s="11"/>
       <c r="I154" s="11"/>
@@ -4411,124 +4439,152 @@
         <v>198</v>
       </c>
     </row>
-    <row r="156" spans="1:15">
-      <c r="A156" s="11"/>
-      <c r="B156" s="11"/>
-      <c r="C156" s="11"/>
-      <c r="D156" s="11"/>
-      <c r="E156" s="11"/>
-      <c r="F156" s="11"/>
-      <c r="G156" s="11"/>
-      <c r="H156" s="11"/>
-      <c r="I156" s="11"/>
-      <c r="J156" s="11"/>
-      <c r="K156" s="11"/>
-      <c r="L156" s="15"/>
-      <c r="M156" s="11"/>
-    </row>
-    <row r="157" spans="1:15">
-      <c r="A157" s="11"/>
-      <c r="B157" s="11"/>
-      <c r="C157" s="11"/>
-      <c r="D157" s="11"/>
-      <c r="E157" s="11"/>
-      <c r="F157" s="11"/>
-      <c r="G157" s="11"/>
-      <c r="H157" s="11"/>
-      <c r="I157" s="11"/>
-      <c r="J157" s="11"/>
-      <c r="K157" s="11"/>
-      <c r="L157" s="15"/>
-      <c r="M157" s="11"/>
-    </row>
-    <row r="158" spans="1:15">
-      <c r="A158" s="11"/>
-      <c r="B158" s="11"/>
-      <c r="C158" s="11"/>
-      <c r="D158" s="11"/>
-      <c r="E158" s="11"/>
-      <c r="F158" s="11"/>
-      <c r="H158" s="11"/>
-      <c r="I158" s="11"/>
-      <c r="J158" s="11"/>
-      <c r="K158" s="11"/>
-      <c r="L158" s="15"/>
-      <c r="M158" s="11"/>
-    </row>
-    <row r="159" spans="1:15">
-      <c r="L159" s="1"/>
+    <row r="155" spans="1:15">
+      <c r="A155" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="B155" s="11"/>
+      <c r="C155" s="11"/>
+      <c r="D155" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="E155" s="11"/>
+      <c r="F155" s="11"/>
+      <c r="G155" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H155" s="11"/>
+      <c r="I155" s="11"/>
+      <c r="J155" s="11"/>
+      <c r="K155" s="11"/>
+      <c r="L155" s="12">
+        <v>43712</v>
+      </c>
+      <c r="M155" s="13" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="160" spans="1:15">
       <c r="L160" s="1"/>
     </row>
-    <row r="161" spans="12:12">
-      <c r="L161" s="1"/>
-    </row>
-    <row r="162" spans="12:12">
-      <c r="L162" s="1"/>
-    </row>
-    <row r="163" spans="12:12">
-      <c r="L163" s="1"/>
-    </row>
-    <row r="164" spans="12:12">
-      <c r="L164" s="1"/>
-    </row>
-    <row r="165" spans="12:12">
+    <row r="162" spans="1:13">
+      <c r="A162" s="11"/>
+      <c r="B162" s="11"/>
+      <c r="C162" s="11"/>
+      <c r="D162" s="11"/>
+      <c r="E162" s="11"/>
+      <c r="F162" s="11"/>
+      <c r="G162" s="11"/>
+      <c r="H162" s="11"/>
+      <c r="I162" s="11"/>
+      <c r="J162" s="11"/>
+      <c r="K162" s="11"/>
+      <c r="L162" s="15"/>
+      <c r="M162" s="11"/>
+    </row>
+    <row r="163" spans="1:13">
+      <c r="A163" s="11"/>
+      <c r="B163" s="11"/>
+      <c r="C163" s="11"/>
+      <c r="D163" s="11"/>
+      <c r="E163" s="11"/>
+      <c r="F163" s="11"/>
+      <c r="G163" s="11"/>
+      <c r="H163" s="11"/>
+      <c r="I163" s="11"/>
+      <c r="J163" s="11"/>
+      <c r="K163" s="11"/>
+      <c r="L163" s="15"/>
+      <c r="M163" s="11"/>
+    </row>
+    <row r="164" spans="1:13">
+      <c r="A164" s="11"/>
+      <c r="B164" s="11"/>
+      <c r="C164" s="11"/>
+      <c r="D164" s="11"/>
+      <c r="E164" s="11"/>
+      <c r="F164" s="11"/>
+      <c r="H164" s="11"/>
+      <c r="I164" s="11"/>
+      <c r="J164" s="11"/>
+      <c r="K164" s="11"/>
+      <c r="L164" s="15"/>
+      <c r="M164" s="11"/>
+    </row>
+    <row r="165" spans="1:13">
       <c r="L165" s="1"/>
     </row>
-    <row r="166" spans="12:12">
+    <row r="166" spans="1:13">
       <c r="L166" s="1"/>
     </row>
-    <row r="167" spans="12:12">
+    <row r="167" spans="1:13">
       <c r="L167" s="1"/>
     </row>
-    <row r="168" spans="12:12">
+    <row r="168" spans="1:13">
       <c r="L168" s="1"/>
     </row>
-    <row r="169" spans="12:12">
+    <row r="169" spans="1:13">
       <c r="L169" s="1"/>
     </row>
-    <row r="170" spans="12:12">
+    <row r="170" spans="1:13">
       <c r="L170" s="1"/>
     </row>
-    <row r="171" spans="12:12">
+    <row r="171" spans="1:13">
       <c r="L171" s="1"/>
     </row>
-    <row r="172" spans="12:12">
+    <row r="172" spans="1:13">
       <c r="L172" s="1"/>
     </row>
-    <row r="173" spans="12:12">
+    <row r="173" spans="1:13">
       <c r="L173" s="1"/>
     </row>
-    <row r="174" spans="12:12">
+    <row r="174" spans="1:13">
       <c r="L174" s="1"/>
     </row>
-    <row r="175" spans="12:12">
+    <row r="175" spans="1:13">
       <c r="L175" s="1"/>
     </row>
-    <row r="176" spans="12:12">
+    <row r="176" spans="1:13">
       <c r="L176" s="1"/>
     </row>
-    <row r="182" spans="6:15" ht="15.75">
-      <c r="F182" s="4"/>
-      <c r="H182" s="4"/>
-    </row>
-    <row r="183" spans="6:15" ht="15.75">
-      <c r="F183" s="4"/>
-      <c r="H183" s="4"/>
-    </row>
-    <row r="184" spans="6:15" ht="15.75">
-      <c r="F184" s="4"/>
-      <c r="H184" s="4"/>
-    </row>
-    <row r="187" spans="6:15">
-      <c r="N187" s="3"/>
-      <c r="O187" s="3"/>
+    <row r="177" spans="6:12">
+      <c r="L177" s="1"/>
+    </row>
+    <row r="178" spans="6:12">
+      <c r="L178" s="1"/>
+    </row>
+    <row r="179" spans="6:12">
+      <c r="L179" s="1"/>
+    </row>
+    <row r="180" spans="6:12">
+      <c r="L180" s="1"/>
+    </row>
+    <row r="181" spans="6:12">
+      <c r="L181" s="1"/>
+    </row>
+    <row r="182" spans="6:12">
+      <c r="L182" s="1"/>
+    </row>
+    <row r="188" spans="6:12" ht="15.75">
+      <c r="F188" s="4"/>
+      <c r="H188" s="4"/>
+    </row>
+    <row r="189" spans="6:12" ht="15.75">
+      <c r="F189" s="4"/>
+      <c r="H189" s="4"/>
+    </row>
+    <row r="190" spans="6:12" ht="15.75">
+      <c r="F190" s="4"/>
+      <c r="H190" s="4"/>
+    </row>
+    <row r="193" spans="14:15">
+      <c r="N193" s="3"/>
+      <c r="O193" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="A2:R187">
-    <sortCondition ref="A2:A187"/>
-    <sortCondition ref="B2:B187"/>
+  <sortState ref="A2:R193">
+    <sortCondition ref="A2:A193"/>
+    <sortCondition ref="B2:B193"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -4537,10 +4593,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:N51"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:M55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5172,6 +5228,88 @@
       <c r="M51" t="s">
         <v>253</v>
       </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" t="s">
+        <v>200</v>
+      </c>
+      <c r="B52">
+        <v>12</v>
+      </c>
+      <c r="D52" t="s">
+        <v>218</v>
+      </c>
+      <c r="G52" t="s">
+        <v>19</v>
+      </c>
+      <c r="L52" s="1">
+        <v>43660</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" t="s">
+        <v>200</v>
+      </c>
+      <c r="B53">
+        <v>21</v>
+      </c>
+      <c r="D53" t="s">
+        <v>206</v>
+      </c>
+      <c r="G53" t="s">
+        <v>169</v>
+      </c>
+      <c r="L53" s="1">
+        <v>43712</v>
+      </c>
+      <c r="M53" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" t="s">
+        <v>200</v>
+      </c>
+      <c r="B54">
+        <v>22</v>
+      </c>
+      <c r="D54" t="s">
+        <v>206</v>
+      </c>
+      <c r="G54" t="s">
+        <v>170</v>
+      </c>
+      <c r="L54" s="1">
+        <v>43712</v>
+      </c>
+      <c r="M54" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B55" s="11">
+        <v>20</v>
+      </c>
+      <c r="C55" s="11"/>
+      <c r="D55" t="s">
+        <v>218</v>
+      </c>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="15">
+        <v>43986</v>
+      </c>
+      <c r="M55" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Support/ThemeTasks.xlsx
+++ b/Support/ThemeTasks.xlsx
@@ -14,7 +14,8 @@
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
     <sheet name="Finished" sheetId="2" r:id="rId2"/>
-    <sheet name="CheckList" sheetId="3" r:id="rId3"/>
+    <sheet name="Frozen" sheetId="4" r:id="rId3"/>
+    <sheet name="CheckList" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="265">
   <si>
     <t>Priority</t>
   </si>
@@ -735,9 +736,6 @@
     <t>Idle Until Urgent</t>
   </si>
   <si>
-    <t>No require, dependency, like in mininum a PHP version</t>
-  </si>
-  <si>
     <t>No exceptions for errors, like include of files</t>
   </si>
   <si>
@@ -756,9 +754,6 @@
     <t>fontawesome-custom.css</t>
   </si>
   <si>
-    <t>CommandLineTools</t>
-  </si>
-  <si>
     <t>socialmedia.css</t>
   </si>
   <si>
@@ -816,7 +811,22 @@
     <t>msgfmt -o filename.mo filename.po</t>
   </si>
   <si>
-    <t>Add to build script</t>
+    <t>Add to build script.  Only needed if and when translation files (*.po) are developed.</t>
+  </si>
+  <si>
+    <t>Fix all code analysis (sniff) errors.</t>
+  </si>
+  <si>
+    <t>Convert files to unix EOL</t>
+  </si>
+  <si>
+    <t>Convert files to spaces</t>
+  </si>
+  <si>
+    <t>Add require dependency, such as mininum a PHP version</t>
+  </si>
+  <si>
+    <t>Changed directory structure to CommandLineTools</t>
   </si>
 </sst>
 </file>
@@ -1189,7 +1199,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1203,7 +1213,7 @@
     <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75">
+    <row r="1" spans="1:15" ht="15.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1244,268 +1254,296 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
+    <row r="2" spans="1:15">
+      <c r="A2" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
+      <c r="B2" s="11">
+        <v>2</v>
+      </c>
+      <c r="C2" s="11"/>
       <c r="D2" t="s">
         <v>218</v>
       </c>
-      <c r="G2" t="s">
-        <v>257</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="L2" s="1">
-        <v>43990</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="15">
+        <v>43986</v>
+      </c>
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>200</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>218</v>
       </c>
       <c r="G3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L3" s="1">
-        <v>43990</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>43994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>200</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>218</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>252</v>
       </c>
       <c r="L4" s="1">
-        <v>43712</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>43990</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>200</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>218</v>
       </c>
       <c r="G5" t="s">
-        <v>258</v>
-      </c>
-      <c r="H5" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="L5" s="1">
         <v>43990</v>
       </c>
-      <c r="M5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="B6">
-        <v>15</v>
-      </c>
+      <c r="B6" s="10">
+        <v>12</v>
+      </c>
+      <c r="C6" s="11"/>
       <c r="D6" t="s">
         <v>218</v>
       </c>
-      <c r="G6" t="s">
-        <v>254</v>
-      </c>
-      <c r="L6" s="1">
-        <v>43990</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="15">
+        <v>43986</v>
+      </c>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="B7">
-        <v>16</v>
-      </c>
+      <c r="B7" s="10">
+        <v>14</v>
+      </c>
+      <c r="C7" s="11"/>
       <c r="D7" t="s">
         <v>218</v>
       </c>
-      <c r="G7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L7" s="1">
-        <v>43990</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="15">
+        <v>43986</v>
+      </c>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="B8">
-        <v>28</v>
-      </c>
+      <c r="B8" s="10">
+        <v>15</v>
+      </c>
+      <c r="C8" s="10"/>
       <c r="D8" t="s">
         <v>218</v>
       </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" s="1">
-        <v>43712</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
+      <c r="E8" s="14"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="15">
+        <v>43986</v>
+      </c>
+      <c r="M8" s="13"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="B9">
-        <v>29</v>
-      </c>
+      <c r="B9" s="11">
+        <v>20</v>
+      </c>
+      <c r="C9" s="11"/>
       <c r="D9" t="s">
         <v>218</v>
       </c>
-      <c r="G9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" s="1">
-        <v>43712</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="15">
+        <v>43986</v>
+      </c>
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>200</v>
       </c>
       <c r="B10">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
         <v>218</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="L10" s="1">
         <v>43712</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>200</v>
       </c>
       <c r="B11">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
         <v>218</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="L11" s="1">
         <v>43712</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>200</v>
       </c>
       <c r="B12">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
         <v>218</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L12" s="1">
         <v>43712</v>
       </c>
-      <c r="M12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>200</v>
       </c>
       <c r="B13">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
         <v>218</v>
       </c>
       <c r="G13" t="s">
-        <v>209</v>
+        <v>25</v>
       </c>
       <c r="L13" s="1">
-        <v>43976</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>43712</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>200</v>
       </c>
       <c r="B14">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
         <v>218</v>
       </c>
-      <c r="E14" t="s">
-        <v>227</v>
-      </c>
       <c r="G14" t="s">
-        <v>217</v>
+        <v>36</v>
       </c>
       <c r="L14" s="1">
-        <v>43976</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>43712</v>
+      </c>
+      <c r="M14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>200</v>
       </c>
       <c r="B15">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
         <v>218</v>
       </c>
-      <c r="E15" t="s">
-        <v>227</v>
-      </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>209</v>
       </c>
       <c r="L15" s="1">
-        <v>43712</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>43976</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>200</v>
       </c>
       <c r="B16">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D16" t="s">
         <v>218</v>
@@ -1514,13 +1552,10 @@
         <v>227</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="L16" s="1">
-        <v>43661</v>
-      </c>
-      <c r="M16" t="s">
-        <v>43</v>
+        <v>43976</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1528,7 +1563,7 @@
         <v>200</v>
       </c>
       <c r="B17">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D17" t="s">
         <v>218</v>
@@ -1537,10 +1572,10 @@
         <v>227</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="L17" s="1">
-        <v>43661</v>
+        <v>43712</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1548,7 +1583,7 @@
         <v>200</v>
       </c>
       <c r="B18">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D18" t="s">
         <v>218</v>
@@ -1557,10 +1592,13 @@
         <v>227</v>
       </c>
       <c r="G18" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="L18" s="1">
         <v>43661</v>
+      </c>
+      <c r="M18" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1568,7 +1606,7 @@
         <v>200</v>
       </c>
       <c r="B19">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D19" t="s">
         <v>218</v>
@@ -1577,7 +1615,7 @@
         <v>227</v>
       </c>
       <c r="G19" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="L19" s="1">
         <v>43661</v>
@@ -1588,7 +1626,7 @@
         <v>200</v>
       </c>
       <c r="B20">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D20" t="s">
         <v>218</v>
@@ -1597,7 +1635,7 @@
         <v>227</v>
       </c>
       <c r="G20" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="L20" s="1">
         <v>43661</v>
@@ -1608,7 +1646,7 @@
         <v>200</v>
       </c>
       <c r="B21">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D21" t="s">
         <v>218</v>
@@ -1617,7 +1655,7 @@
         <v>227</v>
       </c>
       <c r="G21" t="s">
-        <v>229</v>
+        <v>26</v>
       </c>
       <c r="L21" s="1">
         <v>43661</v>
@@ -1628,19 +1666,19 @@
         <v>200</v>
       </c>
       <c r="B22">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="D22" t="s">
         <v>218</v>
       </c>
       <c r="E22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L22" s="1">
-        <v>43660</v>
+        <v>43661</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1648,19 +1686,19 @@
         <v>200</v>
       </c>
       <c r="B23">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D23" t="s">
         <v>218</v>
       </c>
       <c r="E23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>229</v>
       </c>
       <c r="L23" s="1">
-        <v>43660</v>
+        <v>43661</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1668,7 +1706,7 @@
         <v>200</v>
       </c>
       <c r="B24">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D24" t="s">
         <v>218</v>
@@ -1677,10 +1715,10 @@
         <v>228</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="1">
-        <v>43712</v>
+        <v>43660</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1688,16 +1726,19 @@
         <v>200</v>
       </c>
       <c r="B25">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D25" t="s">
         <v>218</v>
       </c>
+      <c r="E25" t="s">
+        <v>228</v>
+      </c>
       <c r="G25" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="L25" s="1">
-        <v>43661</v>
+        <v>43660</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1705,16 +1746,19 @@
         <v>200</v>
       </c>
       <c r="B26">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D26" t="s">
         <v>218</v>
       </c>
+      <c r="E26" t="s">
+        <v>228</v>
+      </c>
       <c r="G26" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="L26" s="1">
-        <v>43661</v>
+        <v>43712</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1722,13 +1766,13 @@
         <v>200</v>
       </c>
       <c r="B27">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D27" t="s">
         <v>218</v>
       </c>
       <c r="G27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L27" s="1">
         <v>43661</v>
@@ -1739,13 +1783,13 @@
         <v>200</v>
       </c>
       <c r="B28">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D28" t="s">
         <v>218</v>
       </c>
       <c r="G28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L28" s="1">
         <v>43661</v>
@@ -1756,637 +1800,616 @@
         <v>200</v>
       </c>
       <c r="B29">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D29" t="s">
         <v>218</v>
       </c>
-      <c r="E29" t="s">
-        <v>228</v>
-      </c>
       <c r="G29" t="s">
-        <v>229</v>
+        <v>73</v>
       </c>
       <c r="L29" s="1">
         <v>43661</v>
       </c>
-      <c r="O29" s="7"/>
-    </row>
-    <row r="30" spans="1:15" ht="15.75">
-      <c r="A30" s="6" t="s">
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" t="s">
         <v>200</v>
       </c>
-      <c r="B30" s="7">
-        <v>150</v>
-      </c>
-      <c r="C30" s="7"/>
+      <c r="B30">
+        <v>142</v>
+      </c>
       <c r="D30" t="s">
         <v>218</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="G30" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H30" s="4"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="2">
-        <v>42636</v>
-      </c>
-      <c r="M30" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
+      <c r="G30" t="s">
+        <v>74</v>
+      </c>
+      <c r="L30" s="1">
+        <v>43661</v>
+      </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>200</v>
       </c>
       <c r="B31">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D31" t="s">
         <v>218</v>
       </c>
+      <c r="E31" t="s">
+        <v>228</v>
+      </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>229</v>
       </c>
       <c r="L31" s="1">
-        <v>43712</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="14" t="s">
+        <v>43661</v>
+      </c>
+      <c r="O31" s="7"/>
+    </row>
+    <row r="32" spans="1:15" ht="15.75">
+      <c r="A32" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
+      <c r="B32" s="7">
+        <v>150</v>
+      </c>
+      <c r="C32" s="7"/>
       <c r="D32" t="s">
         <v>218</v>
       </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="15">
-        <v>43986</v>
-      </c>
-      <c r="M32" s="13"/>
+      <c r="E32" s="4"/>
+      <c r="G32" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="2">
+        <v>42636</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="N32" s="7"/>
       <c r="O32" s="7"/>
     </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="11" t="s">
+    <row r="33" spans="1:15">
+      <c r="A33" t="s">
         <v>200</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
+      <c r="B33">
+        <v>151</v>
+      </c>
       <c r="D33" t="s">
         <v>218</v>
       </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="15">
-        <v>43986</v>
-      </c>
-      <c r="M33" s="11"/>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
+      <c r="G33" t="s">
+        <v>35</v>
+      </c>
+      <c r="L33" s="1">
+        <v>43712</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34">
+        <v>23</v>
+      </c>
       <c r="D34" t="s">
-        <v>218</v>
-      </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="15">
-        <v>43986</v>
-      </c>
-      <c r="M34" s="11"/>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
+        <v>220</v>
+      </c>
+      <c r="G34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="1">
+        <v>43660</v>
+      </c>
+      <c r="M34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35">
+        <v>33</v>
+      </c>
       <c r="D35" t="s">
-        <v>218</v>
-      </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="15">
-        <v>43986</v>
-      </c>
-      <c r="M35" s="11"/>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
+        <v>220</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" s="1">
+        <v>43712</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36">
+        <v>34</v>
+      </c>
       <c r="D36" t="s">
-        <v>218</v>
-      </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="15">
-        <v>43986</v>
-      </c>
-      <c r="M36" s="11"/>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
+        <v>220</v>
+      </c>
+      <c r="G36" t="s">
+        <v>14</v>
+      </c>
+      <c r="L36" s="1">
+        <v>43712</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37">
+        <v>35</v>
+      </c>
       <c r="D37" t="s">
-        <v>218</v>
-      </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="15">
-        <v>43986</v>
-      </c>
-      <c r="M37" s="11"/>
-    </row>
-    <row r="38" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="G37" t="s">
+        <v>15</v>
+      </c>
+      <c r="L37" s="1">
+        <v>43712</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
         <v>95</v>
       </c>
       <c r="B38">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D38" t="s">
         <v>220</v>
       </c>
       <c r="G38" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L38" s="1">
-        <v>43660</v>
-      </c>
-      <c r="M38" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>43712</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
         <v>95</v>
       </c>
       <c r="B39">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D39" t="s">
         <v>220</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L39" s="1">
         <v>43712</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
         <v>95</v>
       </c>
       <c r="B40">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D40" t="s">
         <v>220</v>
       </c>
       <c r="G40" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L40" s="1">
         <v>43712</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
         <v>95</v>
       </c>
       <c r="B41">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D41" t="s">
         <v>220</v>
       </c>
       <c r="G41" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L41" s="1">
         <v>43712</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>95</v>
       </c>
       <c r="B42">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D42" t="s">
         <v>220</v>
       </c>
       <c r="G42" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="L42" s="1">
         <v>43712</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
         <v>95</v>
       </c>
       <c r="B43">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D43" t="s">
         <v>220</v>
       </c>
       <c r="G43" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="L43" s="1">
         <v>43712</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
         <v>95</v>
       </c>
       <c r="B44">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D44" t="s">
         <v>220</v>
       </c>
       <c r="G44" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="L44" s="1">
-        <v>43712</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>43665</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="15.75">
       <c r="A45" t="s">
         <v>95</v>
       </c>
       <c r="B45">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D45" t="s">
         <v>220</v>
       </c>
       <c r="G45" t="s">
-        <v>23</v>
-      </c>
-      <c r="L45" s="1">
-        <v>43712</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" t="s">
-        <v>95</v>
-      </c>
-      <c r="B46">
-        <v>40</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="L45" s="2">
+        <v>42636</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="15.75">
+      <c r="A46" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
       <c r="D46" t="s">
         <v>220</v>
       </c>
-      <c r="G46" t="s">
-        <v>24</v>
-      </c>
-      <c r="L46" s="1">
-        <v>43712</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" t="s">
-        <v>95</v>
-      </c>
-      <c r="B47">
-        <v>44</v>
-      </c>
+      <c r="E46" s="4"/>
+      <c r="G46" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J46" s="7"/>
+      <c r="L46" s="2">
+        <v>42636</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+    </row>
+    <row r="47" spans="1:15" ht="15.75">
+      <c r="A47" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
       <c r="D47" t="s">
         <v>220</v>
       </c>
-      <c r="G47" t="s">
-        <v>39</v>
-      </c>
-      <c r="L47" s="1">
-        <v>43712</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" t="s">
+      <c r="E47" s="4"/>
+      <c r="G47" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J47" s="7"/>
+      <c r="L47" s="2">
+        <v>42636</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B48">
-        <v>46</v>
-      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
       <c r="D48" t="s">
         <v>220</v>
       </c>
-      <c r="G48" t="s">
-        <v>67</v>
-      </c>
-      <c r="L48" s="1">
-        <v>43665</v>
-      </c>
+      <c r="E48" s="3"/>
+      <c r="G48" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="8">
+        <v>42754</v>
+      </c>
+      <c r="M48" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
     </row>
     <row r="49" spans="1:18" ht="15.75">
-      <c r="A49" t="s">
+      <c r="A49" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B49">
-        <v>48</v>
-      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
       <c r="D49" t="s">
         <v>220</v>
       </c>
-      <c r="G49" t="s">
-        <v>68</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>127</v>
-      </c>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J49" s="7"/>
       <c r="L49" s="2">
         <v>42636</v>
       </c>
       <c r="M49" s="7" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" ht="15.75">
-      <c r="A50" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50" t="s">
+        <v>95</v>
+      </c>
       <c r="D50" t="s">
         <v>220</v>
       </c>
-      <c r="E50" s="4"/>
-      <c r="G50" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="J50" s="7"/>
-      <c r="L50" s="2">
-        <v>42636</v>
+      <c r="G50" t="s">
+        <v>141</v>
+      </c>
+      <c r="L50" s="1">
+        <v>43712</v>
       </c>
       <c r="M50" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
     </row>
     <row r="51" spans="1:18" ht="15.75">
-      <c r="A51" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
+      <c r="A51" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="D51" t="s">
         <v>220</v>
       </c>
-      <c r="E51" s="4"/>
-      <c r="G51" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="J51" s="7"/>
-      <c r="L51" s="2">
-        <v>42636</v>
+      <c r="G51" t="s">
+        <v>152</v>
+      </c>
+      <c r="L51" s="1">
+        <v>43712</v>
       </c>
       <c r="M51" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="N51" s="7"/>
-      <c r="O51" s="7"/>
-    </row>
-    <row r="52" spans="1:18">
-      <c r="A52" s="3" t="s">
+    </row>
+    <row r="52" spans="1:18" ht="15.75">
+      <c r="A52" s="6" t="s">
         <v>95</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
-      <c r="D52" t="s">
-        <v>220</v>
-      </c>
-      <c r="E52" s="3"/>
+      <c r="D52" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F52" s="7"/>
       <c r="G52" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
+        <v>117</v>
+      </c>
+      <c r="H52" s="7"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
       <c r="L52" s="8">
         <v>42754</v>
       </c>
       <c r="M52" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="N52" s="7"/>
-      <c r="O52" s="7"/>
-    </row>
-    <row r="53" spans="1:18" ht="15.75">
-      <c r="A53" s="6" t="s">
+      <c r="O52" s="4"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53" s="7" t="s">
         <v>95</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
-      <c r="D53" t="s">
-        <v>220</v>
+      <c r="D53" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
-      <c r="G53" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>84</v>
-      </c>
+      <c r="G53" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
       <c r="J53" s="7"/>
-      <c r="L53" s="2">
-        <v>42636</v>
+      <c r="K53" s="7"/>
+      <c r="L53" s="8">
+        <v>42556</v>
       </c>
       <c r="M53" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="N53" s="7"/>
-      <c r="O53" s="7"/>
-    </row>
-    <row r="54" spans="1:18">
-      <c r="A54" t="s">
+    </row>
+    <row r="54" spans="1:18" ht="15.75">
+      <c r="A54" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D54" t="s">
-        <v>220</v>
-      </c>
-      <c r="G54" t="s">
-        <v>141</v>
-      </c>
-      <c r="L54" s="1">
-        <v>43712</v>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="8">
+        <v>42754</v>
       </c>
       <c r="M54" s="7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="15.75">
-      <c r="A55" s="5" t="s">
-        <v>95</v>
+    <row r="55" spans="1:18">
+      <c r="A55" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G55" t="s">
-        <v>152</v>
+        <v>204</v>
+      </c>
+      <c r="H55" t="s">
+        <v>205</v>
       </c>
       <c r="L55" s="1">
-        <v>43712</v>
-      </c>
-      <c r="M55" s="7" t="s">
-        <v>198</v>
+        <v>43660</v>
+      </c>
+      <c r="M55" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:18" ht="15.75">
-      <c r="A56" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F56" s="7"/>
-      <c r="G56" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H56" s="7"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="8">
-        <v>42754</v>
-      </c>
-      <c r="M56" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="O56" s="4"/>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="4"/>
-    </row>
-    <row r="57" spans="1:18">
-      <c r="A57" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="8">
-        <v>42556</v>
-      </c>
-      <c r="M57" s="7" t="s">
-        <v>198</v>
+      <c r="A56" t="s">
+        <v>120</v>
+      </c>
+      <c r="B56">
+        <v>7</v>
+      </c>
+      <c r="D56" t="s">
+        <v>219</v>
+      </c>
+      <c r="F56" s="4"/>
+      <c r="G56" t="s">
+        <v>66</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="L56" s="1">
+        <v>43719</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="15.75">
+      <c r="A57" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57">
+        <v>8</v>
+      </c>
+      <c r="D57" t="s">
+        <v>219</v>
+      </c>
+      <c r="F57" s="4"/>
+      <c r="G57" t="s">
+        <v>66</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="L57" s="1">
+        <v>43719</v>
       </c>
     </row>
     <row r="58" spans="1:18" ht="15.75">
-      <c r="A58" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E58" s="3"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="8">
-        <v>42754</v>
-      </c>
-      <c r="M58" s="7" t="s">
-        <v>198</v>
+      <c r="A58" t="s">
+        <v>120</v>
+      </c>
+      <c r="B58">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
+        <v>219</v>
+      </c>
+      <c r="F58" s="4"/>
+      <c r="G58" t="s">
+        <v>66</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="L58" s="1">
+        <v>43719</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -2394,16 +2417,13 @@
         <v>120</v>
       </c>
       <c r="B59">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
         <v>219</v>
       </c>
       <c r="G59" t="s">
-        <v>204</v>
-      </c>
-      <c r="H59" t="s">
-        <v>205</v>
+        <v>44</v>
       </c>
       <c r="L59" s="1">
         <v>43660</v>
@@ -2412,191 +2432,200 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="15.75">
+    <row r="60" spans="1:18">
       <c r="A60" t="s">
         <v>120</v>
       </c>
       <c r="B60">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D60" t="s">
         <v>219</v>
       </c>
-      <c r="F60" s="4"/>
       <c r="G60" t="s">
-        <v>66</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>214</v>
+        <v>45</v>
       </c>
       <c r="L60" s="1">
-        <v>43719</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" ht="15.75">
+        <v>43660</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61" t="s">
         <v>120</v>
       </c>
       <c r="B61">
-        <v>8</v>
+        <v>148</v>
       </c>
       <c r="D61" t="s">
         <v>219</v>
       </c>
-      <c r="F61" s="4"/>
       <c r="G61" t="s">
-        <v>66</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>212</v>
+        <v>44</v>
       </c>
       <c r="L61" s="1">
-        <v>43719</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" ht="15.75">
+        <v>43661</v>
+      </c>
+      <c r="M61" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62" t="s">
         <v>120</v>
       </c>
       <c r="B62">
-        <v>9</v>
+        <v>149</v>
       </c>
       <c r="D62" t="s">
         <v>219</v>
       </c>
-      <c r="F62" s="4"/>
       <c r="G62" t="s">
-        <v>66</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>213</v>
+        <v>45</v>
       </c>
       <c r="L62" s="1">
-        <v>43719</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18">
-      <c r="A63" t="s">
+        <v>43661</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="15.75">
+      <c r="A63" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B63">
-        <v>10</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="B63" s="3"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="G63" t="s">
-        <v>44</v>
-      </c>
-      <c r="L63" s="1">
-        <v>43660</v>
-      </c>
-      <c r="M63" t="s">
-        <v>57</v>
-      </c>
+      <c r="E63" s="3"/>
+      <c r="G63" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="8">
+        <v>42754</v>
+      </c>
+      <c r="M63" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
     </row>
     <row r="64" spans="1:18">
-      <c r="A64" t="s">
+      <c r="A64" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B64">
-        <v>11</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="G64" t="s">
-        <v>45</v>
-      </c>
-      <c r="L64" s="1">
-        <v>43660</v>
-      </c>
+      <c r="E64" s="14"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="H64" s="13"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="15">
+        <v>43986</v>
+      </c>
+      <c r="M64" s="11"/>
+      <c r="O64" s="7"/>
     </row>
     <row r="65" spans="1:15">
-      <c r="A65" t="s">
+      <c r="A65" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B65">
-        <v>148</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="G65" t="s">
-        <v>44</v>
-      </c>
-      <c r="L65" s="1">
-        <v>43661</v>
-      </c>
-      <c r="M65" t="s">
-        <v>81</v>
-      </c>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="15">
+        <v>43986</v>
+      </c>
+      <c r="M65" s="11"/>
     </row>
     <row r="66" spans="1:15">
-      <c r="A66" t="s">
+      <c r="A66" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B66">
-        <v>149</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="G66" t="s">
-        <v>45</v>
-      </c>
-      <c r="L66" s="1">
-        <v>43661</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" ht="15.75">
-      <c r="A67" s="6" t="s">
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="15">
+        <v>43986</v>
+      </c>
+      <c r="M66" s="11"/>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="3" t="s">
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="E67" s="3"/>
-      <c r="G67" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="8">
-        <v>42754</v>
-      </c>
-      <c r="M67" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="N67" s="7"/>
-      <c r="O67" s="7"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="15">
+        <v>43986</v>
+      </c>
+      <c r="M67" s="11"/>
     </row>
     <row r="68" spans="1:15">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
       <c r="D68" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="E68" s="14"/>
-      <c r="F68" s="10"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
       <c r="G68" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="H68" s="13"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="13"/>
+        <v>241</v>
+      </c>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
       <c r="L68" s="15">
         <v>43986</v>
       </c>
       <c r="M68" s="11"/>
-      <c r="O68" s="7"/>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="11" t="s">
@@ -2610,7 +2639,7 @@
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
       <c r="G69" s="11" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
@@ -2633,7 +2662,7 @@
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
       <c r="G70" s="11" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H70" s="11"/>
       <c r="I70" s="11"/>
@@ -2644,205 +2673,217 @@
       </c>
       <c r="M70" s="11"/>
     </row>
-    <row r="71" spans="1:15">
-      <c r="A71" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="H71" s="11"/>
-      <c r="I71" s="11"/>
-      <c r="J71" s="11"/>
-      <c r="K71" s="11"/>
-      <c r="L71" s="15">
-        <v>43986</v>
-      </c>
-      <c r="M71" s="11"/>
-    </row>
-    <row r="72" spans="1:15">
-      <c r="A72" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="11"/>
-      <c r="K72" s="11"/>
-      <c r="L72" s="15">
-        <v>43986</v>
-      </c>
-      <c r="M72" s="11"/>
-    </row>
-    <row r="73" spans="1:15">
-      <c r="A73" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="11"/>
-      <c r="K73" s="11"/>
-      <c r="L73" s="15">
-        <v>43986</v>
-      </c>
-      <c r="M73" s="11"/>
-    </row>
-    <row r="74" spans="1:15">
-      <c r="A74" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="H74" s="11"/>
-      <c r="I74" s="11"/>
-      <c r="J74" s="11"/>
-      <c r="K74" s="11"/>
-      <c r="L74" s="15">
-        <v>43986</v>
-      </c>
-      <c r="M74" s="11"/>
+    <row r="71" spans="1:15" ht="15.75">
+      <c r="A71" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B71" s="3">
+        <v>3</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" t="s">
+        <v>206</v>
+      </c>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H71" s="4"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="2">
+        <v>42535</v>
+      </c>
+      <c r="M71" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="1:15" ht="15.75">
+      <c r="A72" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B72" s="4">
+        <v>14</v>
+      </c>
+      <c r="C72" s="4"/>
+      <c r="D72" t="s">
+        <v>206</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="9">
+        <v>42071</v>
+      </c>
+      <c r="M72" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="O72" s="7"/>
+    </row>
+    <row r="73" spans="1:15" ht="15.75">
+      <c r="A73" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B73" s="5">
+        <v>15.4</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" t="s">
+        <v>206</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F73" s="4"/>
+      <c r="G73" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="H73" s="5"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="9">
+        <v>41513</v>
+      </c>
+      <c r="M73" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="O73" s="7"/>
+    </row>
+    <row r="74" spans="1:15" ht="15.75">
+      <c r="A74" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B74" s="7">
+        <v>32</v>
+      </c>
+      <c r="C74" s="7"/>
+      <c r="D74" t="s">
+        <v>206</v>
+      </c>
+      <c r="E74" s="3"/>
+      <c r="G74" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J74" s="7"/>
+      <c r="L74" s="2">
+        <v>42636</v>
+      </c>
+      <c r="M74" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
     </row>
     <row r="75" spans="1:15" ht="15.75">
       <c r="A75" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B75" s="3">
-        <v>3</v>
-      </c>
-      <c r="C75" s="3"/>
+      <c r="B75" s="7">
+        <v>33</v>
+      </c>
+      <c r="C75" s="7"/>
       <c r="D75" t="s">
         <v>206</v>
       </c>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
+      <c r="E75" s="4"/>
       <c r="G75" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H75" s="4"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
+        <v>105</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J75" s="7"/>
       <c r="L75" s="2">
-        <v>42535</v>
+        <v>42636</v>
       </c>
       <c r="M75" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="N75" s="3"/>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="1:15" ht="15.75">
-      <c r="A76" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B76" s="4">
-        <v>14</v>
-      </c>
-      <c r="C76" s="4"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B76" s="3">
+        <v>49</v>
+      </c>
+      <c r="C76" s="3"/>
       <c r="D76" t="s">
         <v>206</v>
       </c>
-      <c r="E76" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="9">
-        <v>42071</v>
+      <c r="E76" s="3"/>
+      <c r="G76" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H76" s="3"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="8">
+        <v>42754</v>
       </c>
       <c r="M76" s="7" t="s">
         <v>198</v>
       </c>
+      <c r="N76" s="7"/>
       <c r="O76" s="7"/>
     </row>
-    <row r="77" spans="1:15" ht="15.75">
-      <c r="A77" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B77" s="5">
-        <v>15.4</v>
-      </c>
-      <c r="C77" s="5"/>
+    <row r="77" spans="1:15">
+      <c r="A77" t="s">
+        <v>201</v>
+      </c>
+      <c r="B77">
+        <v>50</v>
+      </c>
       <c r="D77" t="s">
         <v>206</v>
       </c>
-      <c r="E77" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="F77" s="4"/>
-      <c r="G77" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="H77" s="5"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="9">
-        <v>41513</v>
+      <c r="G77" t="s">
+        <v>138</v>
+      </c>
+      <c r="H77" t="s">
+        <v>139</v>
+      </c>
+      <c r="L77" s="1">
+        <v>43712</v>
       </c>
       <c r="M77" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="O77" s="7"/>
     </row>
     <row r="78" spans="1:15" ht="15.75">
       <c r="A78" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B78" s="7">
-        <v>32</v>
-      </c>
+      <c r="B78" s="7"/>
       <c r="C78" s="7"/>
       <c r="D78" t="s">
         <v>206</v>
       </c>
-      <c r="E78" s="3"/>
+      <c r="E78" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F78" s="7"/>
       <c r="G78" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="J78" s="7"/>
       <c r="L78" s="2">
@@ -2858,19 +2899,17 @@
       <c r="A79" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B79" s="7">
-        <v>33</v>
-      </c>
+      <c r="B79" s="7"/>
       <c r="C79" s="7"/>
       <c r="D79" t="s">
         <v>206</v>
       </c>
-      <c r="E79" s="4"/>
-      <c r="G79" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>104</v>
+      <c r="E79" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F79" s="7"/>
+      <c r="G79" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="J79" s="7"/>
       <c r="L79" s="2">
@@ -2882,26 +2921,25 @@
       <c r="N79" s="7"/>
       <c r="O79" s="7"/>
     </row>
-    <row r="80" spans="1:15">
-      <c r="A80" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B80" s="3">
-        <v>49</v>
-      </c>
-      <c r="C80" s="3"/>
+    <row r="80" spans="1:15" ht="15.75">
+      <c r="A80" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
       <c r="D80" t="s">
         <v>206</v>
       </c>
-      <c r="E80" s="3"/>
+      <c r="E80" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F80" s="7"/>
       <c r="G80" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H80" s="3"/>
+        <v>88</v>
+      </c>
       <c r="J80" s="7"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="8">
-        <v>42754</v>
+      <c r="L80" s="2">
+        <v>42636</v>
       </c>
       <c r="M80" s="7" t="s">
         <v>198</v>
@@ -2909,158 +2947,125 @@
       <c r="N80" s="7"/>
       <c r="O80" s="7"/>
     </row>
-    <row r="81" spans="1:15">
-      <c r="A81" t="s">
-        <v>201</v>
-      </c>
-      <c r="B81">
-        <v>50</v>
-      </c>
+    <row r="81" spans="1:15" ht="15.75">
+      <c r="A81" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
       <c r="D81" t="s">
         <v>206</v>
       </c>
-      <c r="G81" t="s">
-        <v>138</v>
-      </c>
-      <c r="H81" t="s">
-        <v>139</v>
-      </c>
-      <c r="L81" s="1">
-        <v>43712</v>
+      <c r="E81" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F81" s="7"/>
+      <c r="G81" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J81" s="7"/>
+      <c r="L81" s="2">
+        <v>42636</v>
       </c>
       <c r="M81" s="7" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" ht="15.75">
-      <c r="A82" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
+      <c r="N81" s="7"/>
+      <c r="O81" s="7"/>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
       <c r="D82" t="s">
         <v>206</v>
       </c>
-      <c r="E82" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F82" s="7"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
       <c r="G82" s="3" t="s">
-        <v>90</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
       <c r="J82" s="7"/>
-      <c r="L82" s="2">
-        <v>42636</v>
+      <c r="K82" s="7"/>
+      <c r="L82" s="8">
+        <v>42754</v>
       </c>
       <c r="M82" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="N82" s="7"/>
       <c r="O82" s="7"/>
     </row>
-    <row r="83" spans="1:15" ht="15.75">
-      <c r="A83" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
+    <row r="83" spans="1:15">
+      <c r="A83" t="s">
+        <v>201</v>
+      </c>
       <c r="D83" t="s">
         <v>206</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F83" s="7"/>
-      <c r="G83" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="J83" s="7"/>
-      <c r="L83" s="2">
-        <v>42636</v>
+      <c r="G83" t="s">
+        <v>147</v>
+      </c>
+      <c r="L83" s="1">
+        <v>43712</v>
       </c>
       <c r="M83" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="N83" s="7"/>
-      <c r="O83" s="7"/>
     </row>
     <row r="84" spans="1:15" ht="15.75">
-      <c r="A84" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
+      <c r="A84" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="D84" t="s">
         <v>206</v>
       </c>
-      <c r="E84" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F84" s="7"/>
-      <c r="G84" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J84" s="7"/>
-      <c r="L84" s="2">
-        <v>42636</v>
+      <c r="G84" t="s">
+        <v>148</v>
+      </c>
+      <c r="L84" s="1">
+        <v>43712</v>
       </c>
       <c r="M84" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="N84" s="7"/>
-      <c r="O84" s="7"/>
-    </row>
-    <row r="85" spans="1:15" ht="15.75">
-      <c r="A85" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85" t="s">
+        <v>201</v>
+      </c>
       <c r="D85" t="s">
         <v>206</v>
       </c>
-      <c r="E85" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F85" s="7"/>
-      <c r="G85" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J85" s="7"/>
-      <c r="L85" s="2">
-        <v>42636</v>
+      <c r="G85" t="s">
+        <v>149</v>
+      </c>
+      <c r="L85" s="1">
+        <v>43712</v>
       </c>
       <c r="M85" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="N85" s="7"/>
-      <c r="O85" s="7"/>
-    </row>
-    <row r="86" spans="1:15">
-      <c r="A86" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
+    </row>
+    <row r="86" spans="1:15" ht="15.75">
+      <c r="A86" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="D86" t="s">
         <v>206</v>
       </c>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="7"/>
-      <c r="K86" s="7"/>
-      <c r="L86" s="8">
-        <v>42754</v>
+      <c r="G86" t="s">
+        <v>150</v>
+      </c>
+      <c r="L86" s="1">
+        <v>43712</v>
       </c>
       <c r="M86" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="O86" s="7"/>
     </row>
     <row r="87" spans="1:15">
       <c r="A87" t="s">
@@ -3070,7 +3075,7 @@
         <v>206</v>
       </c>
       <c r="G87" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="L87" s="1">
         <v>43712</v>
@@ -3079,15 +3084,15 @@
         <v>198</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="15.75">
-      <c r="A88" s="5" t="s">
+    <row r="88" spans="1:15">
+      <c r="A88" t="s">
         <v>201</v>
       </c>
       <c r="D88" t="s">
         <v>206</v>
       </c>
       <c r="G88" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="L88" s="1">
         <v>43712</v>
@@ -3096,15 +3101,15 @@
         <v>198</v>
       </c>
     </row>
-    <row r="89" spans="1:15">
-      <c r="A89" t="s">
+    <row r="89" spans="1:15" ht="15.75">
+      <c r="A89" s="5" t="s">
         <v>201</v>
       </c>
       <c r="D89" t="s">
         <v>206</v>
       </c>
       <c r="G89" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L89" s="1">
         <v>43712</v>
@@ -3113,15 +3118,15 @@
         <v>198</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="15.75">
-      <c r="A90" s="5" t="s">
+    <row r="90" spans="1:15">
+      <c r="A90" t="s">
         <v>201</v>
       </c>
       <c r="D90" t="s">
         <v>206</v>
       </c>
       <c r="G90" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="L90" s="1">
         <v>43712</v>
@@ -3138,7 +3143,7 @@
         <v>206</v>
       </c>
       <c r="G91" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="L91" s="1">
         <v>43712</v>
@@ -3155,7 +3160,7 @@
         <v>206</v>
       </c>
       <c r="G92" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L92" s="1">
         <v>43712</v>
@@ -3164,15 +3169,15 @@
         <v>198</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="15.75">
-      <c r="A93" s="5" t="s">
+    <row r="93" spans="1:15">
+      <c r="A93" t="s">
         <v>201</v>
       </c>
       <c r="D93" t="s">
         <v>206</v>
       </c>
       <c r="G93" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L93" s="1">
         <v>43712</v>
@@ -3189,7 +3194,7 @@
         <v>206</v>
       </c>
       <c r="G94" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L94" s="1">
         <v>43712</v>
@@ -3206,7 +3211,7 @@
         <v>206</v>
       </c>
       <c r="G95" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="L95" s="1">
         <v>43712</v>
@@ -3223,7 +3228,7 @@
         <v>206</v>
       </c>
       <c r="G96" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L96" s="1">
         <v>43712</v>
@@ -3240,7 +3245,7 @@
         <v>206</v>
       </c>
       <c r="G97" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="L97" s="1">
         <v>43712</v>
@@ -3257,7 +3262,7 @@
         <v>206</v>
       </c>
       <c r="G98" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="L98" s="1">
         <v>43712</v>
@@ -3274,7 +3279,7 @@
         <v>206</v>
       </c>
       <c r="G99" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L99" s="1">
         <v>43712</v>
@@ -3291,7 +3296,7 @@
         <v>206</v>
       </c>
       <c r="G100" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L100" s="1">
         <v>43712</v>
@@ -3308,7 +3313,7 @@
         <v>206</v>
       </c>
       <c r="G101" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L101" s="1">
         <v>43712</v>
@@ -3325,7 +3330,7 @@
         <v>206</v>
       </c>
       <c r="G102" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L102" s="1">
         <v>43712</v>
@@ -3342,7 +3347,7 @@
         <v>206</v>
       </c>
       <c r="G103" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L103" s="1">
         <v>43712</v>
@@ -3359,7 +3364,7 @@
         <v>206</v>
       </c>
       <c r="G104" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="L104" s="1">
         <v>43712</v>
@@ -3376,7 +3381,7 @@
         <v>206</v>
       </c>
       <c r="G105" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="L105" s="1">
         <v>43712</v>
@@ -3393,7 +3398,7 @@
         <v>206</v>
       </c>
       <c r="G106" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="L106" s="1">
         <v>43712</v>
@@ -3410,7 +3415,7 @@
         <v>206</v>
       </c>
       <c r="G107" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="L107" s="1">
         <v>43712</v>
@@ -3427,7 +3432,7 @@
         <v>206</v>
       </c>
       <c r="G108" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L108" s="1">
         <v>43712</v>
@@ -3444,7 +3449,10 @@
         <v>206</v>
       </c>
       <c r="G109" t="s">
-        <v>172</v>
+        <v>176</v>
+      </c>
+      <c r="H109" t="s">
+        <v>177</v>
       </c>
       <c r="L109" s="1">
         <v>43712</v>
@@ -3461,7 +3469,10 @@
         <v>206</v>
       </c>
       <c r="G110" t="s">
-        <v>173</v>
+        <v>178</v>
+      </c>
+      <c r="H110" t="s">
+        <v>179</v>
       </c>
       <c r="L110" s="1">
         <v>43712</v>
@@ -3478,7 +3489,10 @@
         <v>206</v>
       </c>
       <c r="G111" t="s">
-        <v>174</v>
+        <v>180</v>
+      </c>
+      <c r="H111" t="s">
+        <v>181</v>
       </c>
       <c r="L111" s="1">
         <v>43712</v>
@@ -3495,7 +3509,10 @@
         <v>206</v>
       </c>
       <c r="G112" t="s">
-        <v>175</v>
+        <v>182</v>
+      </c>
+      <c r="H112" t="s">
+        <v>183</v>
       </c>
       <c r="L112" s="1">
         <v>43712</v>
@@ -3512,10 +3529,10 @@
         <v>206</v>
       </c>
       <c r="G113" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="H113" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="L113" s="1">
         <v>43712</v>
@@ -3532,10 +3549,10 @@
         <v>206</v>
       </c>
       <c r="G114" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="H114" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="L114" s="1">
         <v>43712</v>
@@ -3552,10 +3569,10 @@
         <v>206</v>
       </c>
       <c r="G115" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H115" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="L115" s="1">
         <v>43712</v>
@@ -3572,10 +3589,7 @@
         <v>206</v>
       </c>
       <c r="G116" t="s">
-        <v>182</v>
-      </c>
-      <c r="H116" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="L116" s="1">
         <v>43712</v>
@@ -3592,10 +3606,7 @@
         <v>206</v>
       </c>
       <c r="G117" t="s">
-        <v>184</v>
-      </c>
-      <c r="H117" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="L117" s="1">
         <v>43712</v>
@@ -3612,10 +3623,7 @@
         <v>206</v>
       </c>
       <c r="G118" t="s">
-        <v>186</v>
-      </c>
-      <c r="H118" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="L118" s="1">
         <v>43712</v>
@@ -3632,10 +3640,7 @@
         <v>206</v>
       </c>
       <c r="G119" t="s">
-        <v>188</v>
-      </c>
-      <c r="H119" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L119" s="1">
         <v>43712</v>
@@ -3652,7 +3657,7 @@
         <v>206</v>
       </c>
       <c r="G120" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L120" s="1">
         <v>43712</v>
@@ -3669,7 +3674,7 @@
         <v>206</v>
       </c>
       <c r="G121" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L121" s="1">
         <v>43712</v>
@@ -3686,7 +3691,7 @@
         <v>206</v>
       </c>
       <c r="G122" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L122" s="1">
         <v>43712</v>
@@ -3703,7 +3708,7 @@
         <v>206</v>
       </c>
       <c r="G123" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L123" s="1">
         <v>43712</v>
@@ -3712,223 +3717,233 @@
         <v>198</v>
       </c>
     </row>
-    <row r="124" spans="1:15">
-      <c r="A124" t="s">
-        <v>201</v>
-      </c>
+    <row r="124" spans="1:15" ht="15.75">
+      <c r="A124" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
       <c r="D124" t="s">
         <v>206</v>
       </c>
-      <c r="G124" t="s">
-        <v>194</v>
-      </c>
-      <c r="L124" s="1">
-        <v>43712</v>
+      <c r="E124" s="3"/>
+      <c r="G124" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K124" s="7"/>
+      <c r="L124" s="8">
+        <v>42754</v>
       </c>
       <c r="M124" s="7" t="s">
         <v>198</v>
       </c>
+      <c r="N124" s="7"/>
+      <c r="O124" s="7"/>
     </row>
     <row r="125" spans="1:15">
-      <c r="A125" t="s">
-        <v>201</v>
-      </c>
-      <c r="D125" t="s">
-        <v>206</v>
-      </c>
-      <c r="G125" t="s">
-        <v>195</v>
-      </c>
-      <c r="L125" s="1">
-        <v>43712</v>
-      </c>
-      <c r="M125" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15">
-      <c r="A126" t="s">
-        <v>201</v>
-      </c>
+      <c r="A125" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B125" s="11"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="H125" s="11"/>
+      <c r="I125" s="11"/>
+      <c r="J125" s="11"/>
+      <c r="K125" s="11"/>
+      <c r="L125" s="15">
+        <v>43986</v>
+      </c>
+      <c r="M125" s="11"/>
+    </row>
+    <row r="126" spans="1:15" ht="15.75">
+      <c r="A126" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B126" s="5">
+        <v>15.4</v>
+      </c>
+      <c r="C126" s="5"/>
       <c r="D126" t="s">
-        <v>206</v>
-      </c>
-      <c r="G126" t="s">
-        <v>196</v>
-      </c>
-      <c r="L126" s="1">
-        <v>43712</v>
+        <v>222</v>
+      </c>
+      <c r="E126" s="5"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H126" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I126" s="4"/>
+      <c r="J126" s="4"/>
+      <c r="K126" s="4"/>
+      <c r="L126" s="9">
+        <v>41513</v>
       </c>
       <c r="M126" s="7" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="127" spans="1:15">
-      <c r="A127" t="s">
-        <v>201</v>
-      </c>
+      <c r="O126" s="7"/>
+    </row>
+    <row r="127" spans="1:15" ht="15.75">
+      <c r="A127" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B127" s="4">
+        <v>20</v>
+      </c>
+      <c r="C127" s="4"/>
       <c r="D127" t="s">
-        <v>206</v>
-      </c>
-      <c r="G127" t="s">
-        <v>197</v>
-      </c>
-      <c r="L127" s="1">
-        <v>43712</v>
+        <v>222</v>
+      </c>
+      <c r="E127" s="5"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4">
+        <v>5</v>
+      </c>
+      <c r="J127" s="4"/>
+      <c r="K127" s="4"/>
+      <c r="L127" s="9">
+        <v>41452</v>
       </c>
       <c r="M127" s="7" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="128" spans="1:15" ht="15.75">
-      <c r="A128" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B128" s="3"/>
-      <c r="C128" s="3"/>
+      <c r="A128" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B128" s="3">
+        <v>21</v>
+      </c>
+      <c r="C128" s="4"/>
       <c r="D128" t="s">
-        <v>206</v>
-      </c>
-      <c r="E128" s="3"/>
-      <c r="G128" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H128" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="K128" s="7"/>
-      <c r="L128" s="8">
-        <v>42754</v>
+        <v>222</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H128" s="4"/>
+      <c r="J128" s="4"/>
+      <c r="K128" s="4"/>
+      <c r="L128" s="2">
+        <v>42404</v>
       </c>
       <c r="M128" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="N128" s="7"/>
-      <c r="O128" s="7"/>
-    </row>
-    <row r="129" spans="1:15">
-      <c r="A129" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="B129" s="11"/>
-      <c r="C129" s="11"/>
-      <c r="D129" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="E129" s="11"/>
-      <c r="F129" s="11"/>
-      <c r="G129" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="H129" s="11"/>
-      <c r="I129" s="11"/>
-      <c r="J129" s="11"/>
-      <c r="K129" s="11"/>
-      <c r="L129" s="15">
-        <v>43986</v>
-      </c>
-      <c r="M129" s="11"/>
-    </row>
-    <row r="130" spans="1:15" ht="15.75">
-      <c r="A130" s="5" t="s">
+      <c r="N128" s="4"/>
+      <c r="O128" s="4"/>
+    </row>
+    <row r="129" spans="1:15" ht="15.75">
+      <c r="A129" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B130" s="5">
-        <v>15.4</v>
-      </c>
-      <c r="C130" s="5"/>
+      <c r="B129">
+        <v>30</v>
+      </c>
+      <c r="D129" t="s">
+        <v>222</v>
+      </c>
+      <c r="G129" t="s">
+        <v>140</v>
+      </c>
+      <c r="L129" s="1">
+        <v>43712</v>
+      </c>
+      <c r="M129" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
+      <c r="A130" t="s">
+        <v>224</v>
+      </c>
+      <c r="B130">
+        <v>31</v>
+      </c>
       <c r="D130" t="s">
         <v>222</v>
       </c>
-      <c r="E130" s="5"/>
-      <c r="F130" s="4"/>
-      <c r="G130" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="H130" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="I130" s="4"/>
-      <c r="J130" s="4"/>
-      <c r="K130" s="4"/>
-      <c r="L130" s="9">
-        <v>41513</v>
-      </c>
-      <c r="M130" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="O130" s="7"/>
-    </row>
-    <row r="131" spans="1:15" ht="15.75">
-      <c r="A131" s="5" t="s">
+      <c r="G130" t="s">
+        <v>199</v>
+      </c>
+      <c r="L130" s="1">
+        <v>43719</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
+      <c r="A131" t="s">
         <v>224</v>
       </c>
-      <c r="B131" s="4">
-        <v>20</v>
-      </c>
-      <c r="C131" s="4"/>
+      <c r="B131">
+        <v>150</v>
+      </c>
       <c r="D131" t="s">
         <v>222</v>
       </c>
-      <c r="E131" s="5"/>
-      <c r="F131" s="4"/>
-      <c r="G131" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="H131" s="4"/>
-      <c r="I131" s="4">
-        <v>5</v>
-      </c>
-      <c r="J131" s="4"/>
-      <c r="K131" s="4"/>
-      <c r="L131" s="9">
-        <v>41452</v>
-      </c>
-      <c r="M131" s="7" t="s">
-        <v>198</v>
+      <c r="G131" t="s">
+        <v>22</v>
+      </c>
+      <c r="L131" s="1">
+        <v>43661</v>
       </c>
     </row>
     <row r="132" spans="1:15" ht="15.75">
-      <c r="A132" s="4" t="s">
+      <c r="A132" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="B132" s="3">
-        <v>21</v>
-      </c>
-      <c r="C132" s="4"/>
+      <c r="B132" s="7"/>
+      <c r="C132" s="7"/>
       <c r="D132" t="s">
         <v>222</v>
       </c>
-      <c r="E132" s="5" t="s">
-        <v>94</v>
-      </c>
+      <c r="E132" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F132" s="4"/>
       <c r="G132" s="4" t="s">
-        <v>93</v>
+        <v>226</v>
       </c>
       <c r="H132" s="4"/>
       <c r="J132" s="4"/>
-      <c r="K132" s="4"/>
+      <c r="K132" s="7"/>
       <c r="L132" s="2">
-        <v>42404</v>
+        <v>42636</v>
       </c>
       <c r="M132" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="N132" s="4"/>
-      <c r="O132" s="4"/>
+      <c r="O132" s="7"/>
     </row>
     <row r="133" spans="1:15" ht="15.75">
       <c r="A133" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B133">
-        <v>30</v>
-      </c>
       <c r="D133" t="s">
         <v>222</v>
       </c>
       <c r="G133" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="L133" s="1">
         <v>43712</v>
@@ -3937,272 +3952,292 @@
         <v>198</v>
       </c>
     </row>
-    <row r="134" spans="1:15">
-      <c r="A134" t="s">
+    <row r="134" spans="1:15" ht="15.75">
+      <c r="A134" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B134">
-        <v>31</v>
-      </c>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
       <c r="D134" t="s">
         <v>222</v>
       </c>
-      <c r="G134" t="s">
-        <v>199</v>
-      </c>
-      <c r="L134" s="1">
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5">
+        <v>30</v>
+      </c>
+      <c r="J134" s="5"/>
+      <c r="K134" s="5"/>
+      <c r="L134" s="9">
+        <v>41499</v>
+      </c>
+      <c r="M134" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
+      <c r="A135" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B135" s="10"/>
+      <c r="C135" s="10"/>
+      <c r="D135" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E135" s="10"/>
+      <c r="F135" s="11"/>
+      <c r="G135" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="H135" s="10"/>
+      <c r="I135" s="11"/>
+      <c r="J135" s="10"/>
+      <c r="K135" s="10"/>
+      <c r="L135" s="12">
         <v>43719</v>
       </c>
-    </row>
-    <row r="135" spans="1:15">
-      <c r="A135" t="s">
+      <c r="M135" s="13"/>
+      <c r="N135" s="7"/>
+      <c r="O135" s="7"/>
+    </row>
+    <row r="136" spans="1:15">
+      <c r="A136" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="B135">
-        <v>150</v>
-      </c>
-      <c r="D135" t="s">
+      <c r="B136" s="13"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="G135" t="s">
-        <v>22</v>
-      </c>
-      <c r="L135" s="1">
-        <v>43661</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" ht="15.75">
-      <c r="A136" s="6" t="s">
+      <c r="E136" s="10"/>
+      <c r="F136" s="11"/>
+      <c r="G136" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H136" s="10"/>
+      <c r="I136" s="11"/>
+      <c r="J136" s="13"/>
+      <c r="K136" s="10"/>
+      <c r="L136" s="15">
+        <v>42636</v>
+      </c>
+      <c r="M136" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="N136" s="7"/>
+      <c r="O136" s="7"/>
+    </row>
+    <row r="137" spans="1:15">
+      <c r="A137" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="B136" s="7"/>
-      <c r="C136" s="7"/>
-      <c r="D136" t="s">
+      <c r="B137" s="10"/>
+      <c r="C137" s="10"/>
+      <c r="D137" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="E136" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="F136" s="4"/>
-      <c r="G136" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="H136" s="4"/>
-      <c r="J136" s="4"/>
-      <c r="K136" s="7"/>
-      <c r="L136" s="2">
+      <c r="E137" s="10"/>
+      <c r="F137" s="11"/>
+      <c r="G137" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="H137" s="10"/>
+      <c r="I137" s="11"/>
+      <c r="J137" s="13"/>
+      <c r="K137" s="10"/>
+      <c r="L137" s="16">
+        <v>42754</v>
+      </c>
+      <c r="M137" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="N137" s="7"/>
+      <c r="O137" s="7"/>
+    </row>
+    <row r="138" spans="1:15">
+      <c r="A138" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="B138" s="13"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E138" s="10"/>
+      <c r="F138" s="11"/>
+      <c r="G138" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H138" s="10"/>
+      <c r="I138" s="11"/>
+      <c r="J138" s="13"/>
+      <c r="K138" s="10"/>
+      <c r="L138" s="15">
         <v>42636</v>
       </c>
-      <c r="M136" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="O136" s="7"/>
-    </row>
-    <row r="137" spans="1:15" ht="15.75">
-      <c r="A137" s="5" t="s">
+      <c r="M138" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="N138" s="7"/>
+      <c r="O138" s="7"/>
+    </row>
+    <row r="139" spans="1:15">
+      <c r="A139" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="D137" t="s">
-        <v>222</v>
-      </c>
-      <c r="G137" t="s">
-        <v>146</v>
-      </c>
-      <c r="L137" s="1">
-        <v>43712</v>
-      </c>
-      <c r="M137" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" ht="15.75">
-      <c r="A138" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B138" s="5"/>
-      <c r="C138" s="5"/>
-      <c r="D138" t="s">
-        <v>222</v>
-      </c>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5"/>
-      <c r="G138" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H138" s="5"/>
-      <c r="I138" s="5">
-        <v>30</v>
-      </c>
-      <c r="J138" s="5"/>
-      <c r="K138" s="5"/>
-      <c r="L138" s="9">
-        <v>41499</v>
-      </c>
-      <c r="M138" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15">
-      <c r="A139" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="B139" s="10"/>
-      <c r="C139" s="10"/>
+      <c r="B139" s="13"/>
+      <c r="C139" s="13"/>
       <c r="D139" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="E139" s="10"/>
-      <c r="F139" s="11"/>
+      <c r="E139" s="13"/>
+      <c r="F139" s="13"/>
       <c r="G139" s="10" t="s">
-        <v>207</v>
+        <v>91</v>
       </c>
       <c r="H139" s="10"/>
       <c r="I139" s="11"/>
       <c r="J139" s="10"/>
-      <c r="K139" s="10"/>
-      <c r="L139" s="12">
-        <v>43719</v>
-      </c>
-      <c r="M139" s="13"/>
+      <c r="K139" s="13"/>
+      <c r="L139" s="15">
+        <v>42636</v>
+      </c>
+      <c r="M139" s="13" t="s">
+        <v>198</v>
+      </c>
       <c r="N139" s="7"/>
       <c r="O139" s="7"/>
     </row>
     <row r="140" spans="1:15">
-      <c r="A140" s="14" t="s">
+      <c r="A140" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B140" s="13"/>
-      <c r="C140" s="13"/>
+      <c r="B140" s="10"/>
+      <c r="C140" s="10"/>
       <c r="D140" s="11" t="s">
         <v>222</v>
       </c>
       <c r="E140" s="10"/>
-      <c r="F140" s="11"/>
+      <c r="F140" s="13"/>
       <c r="G140" s="10" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="H140" s="10"/>
-      <c r="I140" s="11"/>
+      <c r="I140" s="10"/>
       <c r="J140" s="13"/>
-      <c r="K140" s="10"/>
-      <c r="L140" s="15">
-        <v>42636</v>
+      <c r="K140" s="13"/>
+      <c r="L140" s="16">
+        <v>42754</v>
       </c>
       <c r="M140" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="N140" s="7"/>
       <c r="O140" s="7"/>
     </row>
     <row r="141" spans="1:15">
       <c r="A141" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="B141" s="10"/>
-      <c r="C141" s="10"/>
+      <c r="B141" s="11"/>
+      <c r="C141" s="11"/>
       <c r="D141" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="E141" s="10"/>
+      <c r="E141" s="11"/>
       <c r="F141" s="11"/>
-      <c r="G141" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="H141" s="10"/>
+      <c r="G141" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="H141" s="11"/>
       <c r="I141" s="11"/>
-      <c r="J141" s="13"/>
-      <c r="K141" s="10"/>
-      <c r="L141" s="16">
-        <v>42754</v>
+      <c r="J141" s="11"/>
+      <c r="K141" s="11"/>
+      <c r="L141" s="12">
+        <v>43712</v>
       </c>
       <c r="M141" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="N141" s="7"/>
-      <c r="O141" s="7"/>
     </row>
     <row r="142" spans="1:15">
-      <c r="A142" s="14" t="s">
+      <c r="A142" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="B142" s="13"/>
-      <c r="C142" s="13"/>
+      <c r="B142" s="11"/>
+      <c r="C142" s="11"/>
       <c r="D142" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="E142" s="10"/>
+      <c r="E142" s="11"/>
       <c r="F142" s="11"/>
-      <c r="G142" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="H142" s="10"/>
+      <c r="G142" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="H142" s="11"/>
       <c r="I142" s="11"/>
-      <c r="J142" s="13"/>
-      <c r="K142" s="10"/>
-      <c r="L142" s="15">
-        <v>42636</v>
+      <c r="J142" s="11"/>
+      <c r="K142" s="11"/>
+      <c r="L142" s="12">
+        <v>43712</v>
       </c>
       <c r="M142" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="N142" s="7"/>
-      <c r="O142" s="7"/>
     </row>
     <row r="143" spans="1:15">
-      <c r="A143" s="14" t="s">
+      <c r="A143" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="B143" s="13"/>
-      <c r="C143" s="13"/>
+      <c r="B143" s="11"/>
+      <c r="C143" s="11"/>
       <c r="D143" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="E143" s="13"/>
-      <c r="F143" s="13"/>
-      <c r="G143" s="10" t="s">
-        <v>91</v>
+      <c r="E143" s="14"/>
+      <c r="F143" s="10"/>
+      <c r="G143" s="14" t="s">
+        <v>232</v>
       </c>
       <c r="H143" s="10"/>
-      <c r="I143" s="11"/>
+      <c r="I143" s="10"/>
       <c r="J143" s="10"/>
-      <c r="K143" s="13"/>
+      <c r="K143" s="10"/>
       <c r="L143" s="15">
-        <v>42636</v>
-      </c>
-      <c r="M143" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="N143" s="7"/>
+        <v>43986</v>
+      </c>
+      <c r="M143" s="13"/>
       <c r="O143" s="7"/>
     </row>
     <row r="144" spans="1:15">
-      <c r="A144" s="10" t="s">
+      <c r="A144" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="B144" s="10"/>
-      <c r="C144" s="10"/>
+      <c r="B144" s="11"/>
+      <c r="C144" s="11"/>
       <c r="D144" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="E144" s="10"/>
-      <c r="F144" s="13"/>
-      <c r="G144" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="H144" s="10"/>
-      <c r="I144" s="10"/>
-      <c r="J144" s="13"/>
-      <c r="K144" s="13"/>
-      <c r="L144" s="16">
-        <v>42754</v>
-      </c>
-      <c r="M144" s="13" t="s">
-        <v>198</v>
-      </c>
+      <c r="E144" s="11"/>
+      <c r="F144" s="11"/>
+      <c r="G144" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="H144" s="11"/>
+      <c r="I144" s="11"/>
+      <c r="J144" s="11"/>
+      <c r="K144" s="11"/>
+      <c r="L144" s="15">
+        <v>43986</v>
+      </c>
+      <c r="M144" s="11"/>
       <c r="O144" s="7"/>
     </row>
-    <row r="145" spans="1:15">
-      <c r="A145" s="14" t="s">
+    <row r="145" spans="1:13">
+      <c r="A145" s="11" t="s">
         <v>224</v>
       </c>
       <c r="B145" s="11"/>
@@ -4213,20 +4248,18 @@
       <c r="E145" s="11"/>
       <c r="F145" s="11"/>
       <c r="G145" s="11" t="s">
-        <v>142</v>
+        <v>245</v>
       </c>
       <c r="H145" s="11"/>
       <c r="I145" s="11"/>
       <c r="J145" s="11"/>
       <c r="K145" s="11"/>
-      <c r="L145" s="12">
-        <v>43712</v>
-      </c>
-      <c r="M145" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15">
+      <c r="L145" s="15">
+        <v>43986</v>
+      </c>
+      <c r="M145" s="11"/>
+    </row>
+    <row r="146" spans="1:13">
       <c r="A146" s="11" t="s">
         <v>224</v>
       </c>
@@ -4238,20 +4271,18 @@
       <c r="E146" s="11"/>
       <c r="F146" s="11"/>
       <c r="G146" s="11" t="s">
-        <v>143</v>
+        <v>247</v>
       </c>
       <c r="H146" s="11"/>
       <c r="I146" s="11"/>
       <c r="J146" s="11"/>
       <c r="K146" s="11"/>
-      <c r="L146" s="12">
-        <v>43712</v>
-      </c>
-      <c r="M146" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15">
+      <c r="L146" s="15">
+        <v>43986</v>
+      </c>
+      <c r="M146" s="11"/>
+    </row>
+    <row r="147" spans="1:13">
       <c r="A147" s="11" t="s">
         <v>224</v>
       </c>
@@ -4260,22 +4291,21 @@
       <c r="D147" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="E147" s="14"/>
-      <c r="F147" s="10"/>
-      <c r="G147" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="H147" s="10"/>
-      <c r="I147" s="10"/>
-      <c r="J147" s="10"/>
-      <c r="K147" s="10"/>
+      <c r="E147" s="11"/>
+      <c r="F147" s="11"/>
+      <c r="G147" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="H147" s="11"/>
+      <c r="I147" s="11"/>
+      <c r="J147" s="11"/>
+      <c r="K147" s="11"/>
       <c r="L147" s="15">
         <v>43986</v>
       </c>
-      <c r="M147" s="13"/>
-      <c r="O147" s="7"/>
-    </row>
-    <row r="148" spans="1:15">
+      <c r="M147" s="11"/>
+    </row>
+    <row r="148" spans="1:13">
       <c r="A148" s="11" t="s">
         <v>224</v>
       </c>
@@ -4287,7 +4317,7 @@
       <c r="E148" s="11"/>
       <c r="F148" s="11"/>
       <c r="G148" s="11" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="H148" s="11"/>
       <c r="I148" s="11"/>
@@ -4297,9 +4327,8 @@
         <v>43986</v>
       </c>
       <c r="M148" s="11"/>
-      <c r="O148" s="7"/>
-    </row>
-    <row r="149" spans="1:15">
+    </row>
+    <row r="149" spans="1:13">
       <c r="A149" s="11" t="s">
         <v>224</v>
       </c>
@@ -4311,7 +4340,7 @@
       <c r="E149" s="11"/>
       <c r="F149" s="11"/>
       <c r="G149" s="11" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H149" s="11"/>
       <c r="I149" s="11"/>
@@ -4322,149 +4351,60 @@
       </c>
       <c r="M149" s="11"/>
     </row>
-    <row r="150" spans="1:15">
+    <row r="150" spans="1:13">
       <c r="A150" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
       <c r="D150" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E150" s="11"/>
       <c r="F150" s="11"/>
       <c r="G150" s="11" t="s">
-        <v>249</v>
+        <v>145</v>
       </c>
       <c r="H150" s="11"/>
       <c r="I150" s="11"/>
       <c r="J150" s="11"/>
       <c r="K150" s="11"/>
-      <c r="L150" s="15">
-        <v>43986</v>
-      </c>
-      <c r="M150" s="11"/>
-    </row>
-    <row r="151" spans="1:15">
-      <c r="A151" s="11" t="s">
-        <v>224</v>
+      <c r="L150" s="12">
+        <v>43712</v>
+      </c>
+      <c r="M150" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
+      <c r="A151" s="14" t="s">
+        <v>223</v>
       </c>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
       <c r="D151" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E151" s="11"/>
       <c r="F151" s="11"/>
       <c r="G151" s="11" t="s">
-        <v>250</v>
+        <v>144</v>
       </c>
       <c r="H151" s="11"/>
       <c r="I151" s="11"/>
       <c r="J151" s="11"/>
       <c r="K151" s="11"/>
-      <c r="L151" s="15">
-        <v>43986</v>
-      </c>
-      <c r="M151" s="11"/>
-    </row>
-    <row r="152" spans="1:15">
-      <c r="A152" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="B152" s="11"/>
-      <c r="C152" s="11"/>
-      <c r="D152" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="E152" s="11"/>
-      <c r="F152" s="11"/>
-      <c r="G152" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="H152" s="11"/>
-      <c r="I152" s="11"/>
-      <c r="J152" s="11"/>
-      <c r="K152" s="11"/>
-      <c r="L152" s="15">
-        <v>43986</v>
-      </c>
-      <c r="M152" s="11"/>
-    </row>
-    <row r="153" spans="1:15">
-      <c r="A153" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="B153" s="11"/>
-      <c r="C153" s="11"/>
-      <c r="D153" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="E153" s="11"/>
-      <c r="F153" s="11"/>
-      <c r="G153" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="H153" s="11"/>
-      <c r="I153" s="11"/>
-      <c r="J153" s="11"/>
-      <c r="K153" s="11"/>
-      <c r="L153" s="15">
-        <v>43986</v>
-      </c>
-      <c r="M153" s="11"/>
-    </row>
-    <row r="154" spans="1:15">
-      <c r="A154" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="B154" s="11"/>
-      <c r="C154" s="11"/>
-      <c r="D154" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="E154" s="11"/>
-      <c r="F154" s="11"/>
-      <c r="G154" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="H154" s="11"/>
-      <c r="I154" s="11"/>
-      <c r="J154" s="11"/>
-      <c r="K154" s="11"/>
-      <c r="L154" s="12">
-        <v>43712</v>
-      </c>
-      <c r="M154" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15">
-      <c r="A155" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="B155" s="11"/>
-      <c r="C155" s="11"/>
-      <c r="D155" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="E155" s="11"/>
-      <c r="F155" s="11"/>
-      <c r="G155" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="H155" s="11"/>
-      <c r="I155" s="11"/>
-      <c r="J155" s="11"/>
-      <c r="K155" s="11"/>
-      <c r="L155" s="12">
-        <v>43712</v>
-      </c>
-      <c r="M155" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15">
+      <c r="L151" s="12">
+        <v>43712</v>
+      </c>
+      <c r="M151" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13">
+      <c r="M155" s="11"/>
+    </row>
+    <row r="160" spans="1:13">
       <c r="L160" s="1"/>
     </row>
     <row r="162" spans="1:13">
@@ -4593,10 +4533,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M55"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:M55"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5226,7 +5166,7 @@
         <v>43719</v>
       </c>
       <c r="M51" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -5300,7 +5240,7 @@
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H55" s="11"/>
       <c r="I55" s="11"/>
@@ -5311,12 +5251,136 @@
       </c>
       <c r="M55" s="11"/>
     </row>
+    <row r="56" spans="1:13">
+      <c r="A56" t="s">
+        <v>200</v>
+      </c>
+      <c r="B56">
+        <v>10</v>
+      </c>
+      <c r="D56" t="s">
+        <v>218</v>
+      </c>
+      <c r="G56" t="s">
+        <v>255</v>
+      </c>
+      <c r="H56" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="L56" s="1">
+        <v>43990</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" t="s">
+        <v>201</v>
+      </c>
+      <c r="B57">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s">
+        <v>206</v>
+      </c>
+      <c r="G57" t="s">
+        <v>257</v>
+      </c>
+      <c r="L57" s="1">
+        <v>43990</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" t="s">
+        <v>200</v>
+      </c>
+      <c r="B58">
+        <v>12</v>
+      </c>
+      <c r="D58" t="s">
+        <v>218</v>
+      </c>
+      <c r="G58" t="s">
+        <v>38</v>
+      </c>
+      <c r="L58" s="1">
+        <v>43712</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="G59" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="G60" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" t="s">
+        <v>218</v>
+      </c>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="15">
+        <v>43986</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:Q1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H1" t="s">
+        <v>258</v>
+      </c>
+      <c r="L1" s="1">
+        <v>43990</v>
+      </c>
+      <c r="M1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
